--- a/capiq_data/in_process_data/IQ31468.xlsx
+++ b/capiq_data/in_process_data/IQ31468.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD75FED-6103-46E5-987E-6299D0ACB57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDEDC06-966E-4155-81D0-0AE894A18841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"c90d42f5-c043-4e55-8dd5-eb8a087c7c32"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"cca6de42-9030-405d-b348-c5323a6a58eb"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>80.852000000000004</v>
+        <v>23.3</v>
       </c>
       <c r="D2">
-        <v>592.76499999999999</v>
+        <v>297.87</v>
       </c>
       <c r="E2">
-        <v>368.93599999999998</v>
+        <v>212.57</v>
       </c>
       <c r="F2">
-        <v>316.58999999999997</v>
+        <v>140.851</v>
       </c>
       <c r="G2">
-        <v>1144.895</v>
+        <v>423.339</v>
       </c>
       <c r="H2">
-        <v>2283.0630000000001</v>
+        <v>887.58199999999999</v>
       </c>
       <c r="I2">
-        <v>138.10499999999999</v>
+        <v>80.513000000000005</v>
       </c>
       <c r="J2">
-        <v>676.14300000000003</v>
+        <v>237.80699999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.66</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>542.18600000000004</v>
+        <v>349.15300000000002</v>
       </c>
       <c r="O2">
-        <v>1511.479</v>
+        <v>708.74199999999996</v>
       </c>
       <c r="P2">
-        <v>687.04499999999996</v>
+        <v>288.36700000000002</v>
       </c>
       <c r="Q2">
-        <v>304.69299999999998</v>
+        <v>6.0419999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>11200</v>
+        <v>8250</v>
       </c>
       <c r="T2">
-        <v>771.58399999999995</v>
+        <v>178.84</v>
       </c>
       <c r="U2">
-        <v>447.577</v>
+        <v>21.725000000000001</v>
       </c>
       <c r="V2">
-        <v>63.009</v>
+        <v>46.877000000000002</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>266.42200000000003</v>
+        <v>-22.850999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>80.852000000000004</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>46.826999999999998</v>
+        <v>14.497999999999999</v>
       </c>
       <c r="D3">
-        <v>498.76600000000002</v>
+        <v>265.64400000000001</v>
       </c>
       <c r="E3">
-        <v>365.57799999999997</v>
+        <v>204.43</v>
       </c>
       <c r="F3">
-        <v>261.50700000000001</v>
+        <v>118.31</v>
       </c>
       <c r="G3">
-        <v>1117.1969999999999</v>
+        <v>411.63400000000001</v>
       </c>
       <c r="H3">
-        <v>2298.846</v>
+        <v>858.94799999999998</v>
       </c>
       <c r="I3">
-        <v>134.25700000000001</v>
+        <v>68.022000000000006</v>
       </c>
       <c r="J3">
-        <v>682.68700000000001</v>
+        <v>226.816</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>50.078000000000003</v>
       </c>
       <c r="L3">
-        <v>-11.488</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-29.5</v>
       </c>
       <c r="N3">
-        <v>524.41300000000001</v>
+        <v>320.76600000000002</v>
       </c>
       <c r="O3">
-        <v>1509.8689999999999</v>
+        <v>666.07600000000002</v>
       </c>
       <c r="P3">
-        <v>705.27</v>
+        <v>276.89400000000001</v>
       </c>
       <c r="Q3">
-        <v>-59.475000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>788.97699999999998</v>
+        <v>192.87200000000001</v>
       </c>
       <c r="U3">
-        <v>388.10199999999998</v>
+        <v>22.984999999999999</v>
       </c>
       <c r="V3">
-        <v>6.524</v>
+        <v>2.1840000000000002</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-34.56</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>46.826999999999998</v>
+        <v>14.497999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>60.188000000000002</v>
+        <v>6.6820000000000004</v>
       </c>
       <c r="D4">
-        <v>561.08799999999997</v>
+        <v>279.03300000000002</v>
       </c>
       <c r="E4">
-        <v>382.089</v>
+        <v>210.03100000000001</v>
       </c>
       <c r="F4">
-        <v>296.19099999999997</v>
+        <v>126.849</v>
       </c>
       <c r="G4">
-        <v>1098.1690000000001</v>
+        <v>411.291</v>
       </c>
       <c r="H4">
-        <v>2341.279</v>
+        <v>855.28399999999999</v>
       </c>
       <c r="I4">
-        <v>151.499</v>
+        <v>67.897999999999996</v>
       </c>
       <c r="J4">
-        <v>628.14599999999996</v>
+        <v>200.49299999999999</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>49.93</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>565.995</v>
+        <v>333.86900000000003</v>
       </c>
       <c r="O4">
-        <v>1502.874</v>
+        <v>653.66700000000003</v>
       </c>
       <c r="P4">
-        <v>640.77200000000005</v>
+        <v>250.423</v>
       </c>
       <c r="Q4">
-        <v>-59.338999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>838.40499999999997</v>
+        <v>201.61699999999999</v>
       </c>
       <c r="U4">
-        <v>328.76299999999998</v>
+        <v>23.212</v>
       </c>
       <c r="V4">
-        <v>87.028999999999996</v>
+        <v>27.488</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-125.795</v>
+        <v>-18.431999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>60.188000000000002</v>
+        <v>6.6820000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>68.195999999999998</v>
+        <v>20.384</v>
       </c>
       <c r="D5">
-        <v>601.11400000000003</v>
+        <v>285.06400000000002</v>
       </c>
       <c r="E5">
-        <v>398.40199999999999</v>
+        <v>218.55</v>
       </c>
       <c r="F5">
-        <v>314.41699999999997</v>
+        <v>131.024</v>
       </c>
       <c r="G5">
-        <v>1053.146</v>
+        <v>431.81</v>
       </c>
       <c r="H5">
-        <v>2295.4369999999999</v>
+        <v>903.91</v>
       </c>
       <c r="I5">
-        <v>167.91900000000001</v>
+        <v>59.142000000000003</v>
       </c>
       <c r="J5">
-        <v>560.00900000000001</v>
+        <v>201.09399999999999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>49.973999999999997</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>617.28300000000002</v>
+        <v>345.45</v>
       </c>
       <c r="O5">
-        <v>1476.028</v>
+        <v>671.76800000000003</v>
       </c>
       <c r="P5">
-        <v>591.15200000000004</v>
+        <v>251.06800000000001</v>
       </c>
       <c r="Q5">
-        <v>-66.290000000000006</v>
+        <v>1.496</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>819.40899999999999</v>
+        <v>232.142</v>
       </c>
       <c r="U5">
-        <v>262.47300000000001</v>
+        <v>24.707999999999998</v>
       </c>
       <c r="V5">
-        <v>84.111000000000004</v>
+        <v>27.306000000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-105.97</v>
+        <v>-12.943</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>68.195999999999998</v>
+        <v>20.384</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>94.281999999999996</v>
+        <v>30.7</v>
       </c>
       <c r="D6">
-        <v>648.36</v>
+        <v>318.28100000000001</v>
       </c>
       <c r="E6">
-        <v>425.14699999999999</v>
+        <v>227.29499999999999</v>
       </c>
       <c r="F6">
-        <v>346.15899999999999</v>
+        <v>152.69900000000001</v>
       </c>
       <c r="G6">
-        <v>1018.8630000000001</v>
+        <v>431.75799999999998</v>
       </c>
       <c r="H6">
-        <v>2203.4740000000002</v>
+        <v>1189.412</v>
       </c>
       <c r="I6">
-        <v>168.10900000000001</v>
+        <v>66.326999999999998</v>
       </c>
       <c r="J6">
-        <v>485.89</v>
+        <v>309.47899999999998</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.783999999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>609.84400000000005</v>
+        <v>347.58699999999999</v>
       </c>
       <c r="O6">
-        <v>1422.337</v>
+        <v>801.22799999999995</v>
       </c>
       <c r="P6">
-        <v>514.19000000000005</v>
+        <v>359.71800000000002</v>
       </c>
       <c r="Q6">
-        <v>-26.872</v>
+        <v>3.0129999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="T6">
-        <v>781.13699999999994</v>
+        <v>388.18400000000003</v>
       </c>
       <c r="U6">
-        <v>235.601</v>
+        <v>27.721</v>
       </c>
       <c r="V6">
-        <v>103.21599999999999</v>
+        <v>44.594000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-94.144000000000005</v>
+        <v>126.57599999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>94.281999999999996</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>52.326999999999998</v>
+        <v>18.673999999999999</v>
       </c>
       <c r="D7">
-        <v>535.4</v>
+        <v>272.95699999999999</v>
       </c>
       <c r="E7">
-        <v>389.11799999999999</v>
+        <v>221.09</v>
       </c>
       <c r="F7">
-        <v>277.10199999999998</v>
+        <v>125.137</v>
       </c>
       <c r="G7">
-        <v>905.58199999999999</v>
+        <v>423.81299999999999</v>
       </c>
       <c r="H7">
-        <v>2113.4430000000002</v>
+        <v>1203.6469999999999</v>
       </c>
       <c r="I7">
-        <v>131.98400000000001</v>
+        <v>54.384</v>
       </c>
       <c r="J7">
-        <v>453.714</v>
+        <v>318.35300000000001</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>50.256</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-93.878</v>
+        <v>-21.594999999999999</v>
       </c>
       <c r="N7">
-        <v>525.41899999999998</v>
+        <v>336.15</v>
       </c>
       <c r="O7">
-        <v>1306.47</v>
+        <v>796.42399999999998</v>
       </c>
       <c r="P7">
-        <v>482.53100000000001</v>
+        <v>368.60899999999998</v>
       </c>
       <c r="Q7">
-        <v>-79.409000000000006</v>
+        <v>-4.26</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>806.97299999999996</v>
+        <v>407.22300000000001</v>
       </c>
       <c r="U7">
-        <v>156.19200000000001</v>
+        <v>23.460999999999999</v>
       </c>
       <c r="V7">
-        <v>20.797000000000001</v>
+        <v>11.614000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-83.77</v>
+        <v>10.552</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>52.326999999999998</v>
+        <v>18.673999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>61.704000000000001</v>
+        <v>27.478000000000002</v>
       </c>
       <c r="D8">
-        <v>570.28300000000002</v>
+        <v>296.45400000000001</v>
       </c>
       <c r="E8">
-        <v>397.238</v>
+        <v>230.071</v>
       </c>
       <c r="F8">
-        <v>299.00799999999998</v>
+        <v>141.08199999999999</v>
       </c>
       <c r="G8">
-        <v>860.976</v>
+        <v>449.94099999999997</v>
       </c>
       <c r="H8">
-        <v>2055.6260000000002</v>
+        <v>1258.3589999999999</v>
       </c>
       <c r="I8">
-        <v>129.988</v>
+        <v>58.313000000000002</v>
       </c>
       <c r="J8">
-        <v>440.83</v>
+        <v>304.44400000000002</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>50.439</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>523.00199999999995</v>
+        <v>350.41</v>
       </c>
       <c r="O8">
-        <v>1280.652</v>
+        <v>807.20100000000002</v>
       </c>
       <c r="P8">
-        <v>467.91899999999998</v>
+        <v>354.88299999999998</v>
       </c>
       <c r="Q8">
-        <v>-21.425999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>774.97400000000005</v>
+        <v>451.15800000000002</v>
       </c>
       <c r="U8">
-        <v>134.76599999999999</v>
+        <v>23.875</v>
       </c>
       <c r="V8">
-        <v>91.251999999999995</v>
+        <v>32.865000000000002</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-84.733999999999995</v>
+        <v>-20.888000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>61.704000000000001</v>
+        <v>27.478000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>72.183000000000007</v>
+        <v>22.977</v>
       </c>
       <c r="D9">
-        <v>578.553</v>
+        <v>306.99</v>
       </c>
       <c r="E9">
-        <v>406.57</v>
+        <v>221.43700000000001</v>
       </c>
       <c r="F9">
-        <v>308.15699999999998</v>
+        <v>142.923</v>
       </c>
       <c r="G9">
-        <v>838.36300000000006</v>
+        <v>439.49900000000002</v>
       </c>
       <c r="H9">
-        <v>2061.4050000000002</v>
+        <v>1247.973</v>
       </c>
       <c r="I9">
-        <v>129.982</v>
+        <v>54.37</v>
       </c>
       <c r="J9">
-        <v>388.01</v>
+        <v>280.57100000000003</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>50.627000000000002</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>555.23800000000006</v>
+        <v>338.68400000000003</v>
       </c>
       <c r="O9">
-        <v>1263.1610000000001</v>
+        <v>772.49</v>
       </c>
       <c r="P9">
-        <v>424.58</v>
+        <v>331.19799999999998</v>
       </c>
       <c r="Q9">
-        <v>-29.391999999999999</v>
+        <v>4.407</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>798.24400000000003</v>
+        <v>475.483</v>
       </c>
       <c r="U9">
-        <v>105.374</v>
+        <v>28.282</v>
       </c>
       <c r="V9">
-        <v>103.929</v>
+        <v>34.738</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-113.593</v>
+        <v>-21.315999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>72.183000000000007</v>
+        <v>22.977</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>104.633</v>
+        <v>31.292000000000002</v>
       </c>
       <c r="D10">
-        <v>657.29200000000003</v>
+        <v>337.30599999999998</v>
       </c>
       <c r="E10">
-        <v>437.39</v>
+        <v>231.673</v>
       </c>
       <c r="F10">
-        <v>356.78800000000001</v>
+        <v>158.595</v>
       </c>
       <c r="G10">
-        <v>864.23699999999997</v>
+        <v>475.72699999999998</v>
       </c>
       <c r="H10">
-        <v>2022.288</v>
+        <v>1303.393</v>
       </c>
       <c r="I10">
-        <v>142.36199999999999</v>
+        <v>73.072000000000003</v>
       </c>
       <c r="J10">
-        <v>355.33100000000002</v>
+        <v>262.09300000000002</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.932</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>561.99400000000003</v>
+        <v>367.66399999999999</v>
       </c>
       <c r="O10">
-        <v>1195.069</v>
+        <v>801.00699999999995</v>
       </c>
       <c r="P10">
-        <v>396.93099999999998</v>
+        <v>312.67099999999999</v>
       </c>
       <c r="Q10">
-        <v>-3.6720000000000002</v>
+        <v>3.145</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>12400</v>
+        <v>8500</v>
       </c>
       <c r="T10">
-        <v>827.21900000000005</v>
+        <v>502.38600000000002</v>
       </c>
       <c r="U10">
-        <v>101.702</v>
+        <v>31.427</v>
       </c>
       <c r="V10">
-        <v>111.726</v>
+        <v>36.192999999999998</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-84.3</v>
+        <v>-26</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>104.633</v>
+        <v>31.292000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>52.543999999999997</v>
+        <v>12.935</v>
       </c>
       <c r="D11">
-        <v>524.35500000000002</v>
+        <v>291.80799999999999</v>
       </c>
       <c r="E11">
-        <v>410.65</v>
+        <v>221.18100000000001</v>
       </c>
       <c r="F11">
-        <v>279.15800000000002</v>
+        <v>133.65799999999999</v>
       </c>
       <c r="G11">
-        <v>828.93799999999999</v>
+        <v>480.02100000000002</v>
       </c>
       <c r="H11">
-        <v>2070.6060000000002</v>
+        <v>1304.4269999999999</v>
       </c>
       <c r="I11">
-        <v>116.678</v>
+        <v>62.734999999999999</v>
       </c>
       <c r="J11">
-        <v>429.41300000000001</v>
+        <v>259.47699999999998</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>50.421999999999997</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-89.334000000000003</v>
+        <v>-24.425999999999998</v>
       </c>
       <c r="N11">
-        <v>478.29500000000002</v>
+        <v>357.71499999999997</v>
       </c>
       <c r="O11">
-        <v>1270.384</v>
+        <v>788.49400000000003</v>
       </c>
       <c r="P11">
-        <v>447.37200000000001</v>
+        <v>309.899</v>
       </c>
       <c r="Q11">
-        <v>-8.4930000000000003</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>800.22199999999998</v>
+        <v>515.93299999999999</v>
       </c>
       <c r="U11">
-        <v>93.209000000000003</v>
+        <v>32.021000000000001</v>
       </c>
       <c r="V11">
-        <v>23.672000000000001</v>
+        <v>8.6709999999999994</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-12.833</v>
+        <v>-3.2429999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>52.543999999999997</v>
+        <v>12.935</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>69.061999999999998</v>
+        <v>25.78</v>
       </c>
       <c r="D12">
-        <v>578.67999999999995</v>
+        <v>321.363</v>
       </c>
       <c r="E12">
-        <v>418.03100000000001</v>
+        <v>225.41</v>
       </c>
       <c r="F12">
-        <v>308.84300000000002</v>
+        <v>156.411</v>
       </c>
       <c r="G12">
-        <v>875.37599999999998</v>
+        <v>498.96899999999999</v>
       </c>
       <c r="H12">
-        <v>2133.4369999999999</v>
+        <v>1334.317</v>
       </c>
       <c r="I12">
-        <v>122.755</v>
+        <v>64.265000000000001</v>
       </c>
       <c r="J12">
-        <v>450.22699999999998</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>289.91000000000003</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>509.02600000000001</v>
+        <v>601.654</v>
       </c>
       <c r="O12">
-        <v>1322.335</v>
+        <v>780.70299999999997</v>
       </c>
       <c r="P12">
-        <v>468.15800000000002</v>
+        <v>291.34500000000003</v>
       </c>
       <c r="Q12">
-        <v>27.007999999999999</v>
+        <v>3.129</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>811.10199999999998</v>
+        <v>553.61400000000003</v>
       </c>
       <c r="U12">
-        <v>120.217</v>
+        <v>35.15</v>
       </c>
       <c r="V12">
-        <v>90.96</v>
+        <v>30.72</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-45.331000000000003</v>
+        <v>-20.97</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>69.061999999999998</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>74.325999999999993</v>
+        <v>24.181999999999999</v>
       </c>
       <c r="D13">
-        <v>591.68700000000001</v>
+        <v>320.81400000000002</v>
       </c>
       <c r="E13">
-        <v>402.70800000000003</v>
+        <v>226.697</v>
       </c>
       <c r="F13">
-        <v>318.57299999999998</v>
+        <v>151.864</v>
       </c>
       <c r="G13">
-        <v>848.875</v>
+        <v>499.40499999999997</v>
       </c>
       <c r="H13">
-        <v>2144.0160000000001</v>
+        <v>1336.328</v>
       </c>
       <c r="I13">
-        <v>120.66500000000001</v>
+        <v>58.996000000000002</v>
       </c>
       <c r="J13">
-        <v>390.87099999999998</v>
+        <v>1.345</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>256.70699999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>538.97500000000002</v>
+        <v>582.70299999999997</v>
       </c>
       <c r="O13">
-        <v>1296.374</v>
+        <v>758.53700000000003</v>
       </c>
       <c r="P13">
-        <v>406.89</v>
+        <v>258.05200000000002</v>
       </c>
       <c r="Q13">
-        <v>-27.995000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>847.64200000000005</v>
+        <v>577.79100000000005</v>
       </c>
       <c r="U13">
-        <v>92.221999999999994</v>
+        <v>35.395000000000003</v>
       </c>
       <c r="V13">
-        <v>122.783</v>
+        <v>39.063000000000002</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-131.45099999999999</v>
+        <v>-32.674999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>74.325999999999993</v>
+        <v>24.181999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>110.16200000000001</v>
+        <v>32.941000000000003</v>
       </c>
       <c r="D14">
-        <v>684.25199999999995</v>
+        <v>370.44600000000003</v>
       </c>
       <c r="E14">
-        <v>466.70299999999997</v>
+        <v>249.35300000000001</v>
       </c>
       <c r="F14">
-        <v>375.35700000000003</v>
+        <v>176.643</v>
       </c>
       <c r="G14">
-        <v>913.98699999999997</v>
+        <v>505.53699999999998</v>
       </c>
       <c r="H14">
-        <v>2152.819</v>
+        <v>1387.2760000000001</v>
       </c>
       <c r="I14">
-        <v>145.99299999999999</v>
+        <v>68.242999999999995</v>
       </c>
       <c r="J14">
-        <v>401.27199999999999</v>
+        <v>223.239</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.277000000000001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>564.18799999999999</v>
+        <v>327.90899999999999</v>
       </c>
       <c r="O14">
-        <v>1217.7670000000001</v>
+        <v>733.28</v>
       </c>
       <c r="P14">
-        <v>418.339</v>
+        <v>241.51599999999999</v>
       </c>
       <c r="Q14">
-        <v>19.652000000000001</v>
+        <v>9.7210000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>12500</v>
+        <v>8650</v>
       </c>
       <c r="T14">
-        <v>935.05200000000002</v>
+        <v>653.99599999999998</v>
       </c>
       <c r="U14">
-        <v>111.874</v>
+        <v>45.116</v>
       </c>
       <c r="V14">
-        <v>108.51300000000001</v>
+        <v>38.777000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-61.500999999999998</v>
+        <v>-19.832000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>110.16200000000001</v>
+        <v>32.941000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>58.051000000000002</v>
+        <v>18.622</v>
       </c>
       <c r="D15">
-        <v>550.62099999999998</v>
+        <v>318.709</v>
       </c>
       <c r="E15">
-        <v>425.161</v>
+        <v>239.321</v>
       </c>
       <c r="F15">
-        <v>292.64100000000002</v>
+        <v>150.27600000000001</v>
       </c>
       <c r="G15">
-        <v>890.10500000000002</v>
+        <v>502.07100000000003</v>
       </c>
       <c r="H15">
-        <v>2135.1370000000002</v>
+        <v>1374.249</v>
       </c>
       <c r="I15">
-        <v>119.128</v>
+        <v>64.471999999999994</v>
       </c>
       <c r="J15">
-        <v>454.28199999999998</v>
+        <v>211.42500000000001</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.873000000000001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-93.228999999999999</v>
+        <v>-41.494</v>
       </c>
       <c r="N15">
-        <v>509.19499999999999</v>
+        <v>331.11900000000003</v>
       </c>
       <c r="O15">
-        <v>1211.5329999999999</v>
+        <v>721.74400000000003</v>
       </c>
       <c r="P15">
-        <v>470.53699999999998</v>
+        <v>230.298</v>
       </c>
       <c r="Q15">
-        <v>3.93</v>
+        <v>-0.34799999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>923.60400000000004</v>
+        <v>652.505</v>
       </c>
       <c r="U15">
-        <v>115.804</v>
+        <v>44.768000000000001</v>
       </c>
       <c r="V15">
-        <v>42.844999999999999</v>
+        <v>29.422999999999998</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-21.902999999999999</v>
+        <v>-24.347000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>58.051000000000002</v>
+        <v>18.622</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>74.022000000000006</v>
+        <v>28.417999999999999</v>
       </c>
       <c r="D16">
-        <v>608.83399999999995</v>
+        <v>344.49200000000002</v>
       </c>
       <c r="E16">
-        <v>427.495</v>
+        <v>247.423</v>
       </c>
       <c r="F16">
-        <v>328.17599999999999</v>
+        <v>167.91900000000001</v>
       </c>
       <c r="G16">
-        <v>886.38800000000003</v>
+        <v>510.654</v>
       </c>
       <c r="H16">
-        <v>2143.42</v>
+        <v>1385.4369999999999</v>
       </c>
       <c r="I16">
-        <v>140.10499999999999</v>
+        <v>66.213999999999999</v>
       </c>
       <c r="J16">
-        <v>349.76400000000001</v>
+        <v>172.80600000000001</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>640.38099999999997</v>
+        <v>345.48700000000002</v>
       </c>
       <c r="O16">
-        <v>1235.7059999999999</v>
+        <v>698.32100000000003</v>
       </c>
       <c r="P16">
-        <v>471.07</v>
+        <v>191.60599999999999</v>
       </c>
       <c r="Q16">
-        <v>-4.7919999999999998</v>
+        <v>2.8450000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>907.71400000000006</v>
+        <v>687.11599999999999</v>
       </c>
       <c r="U16">
-        <v>111.012</v>
+        <v>47.613</v>
       </c>
       <c r="V16">
-        <v>108.13200000000001</v>
+        <v>45.5</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-90.066999999999993</v>
+        <v>-38.081000000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>74.022000000000006</v>
+        <v>28.417999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>84.995999999999995</v>
+        <v>24.628</v>
       </c>
       <c r="D17">
-        <v>629.1</v>
+        <v>342.048</v>
       </c>
       <c r="E17">
-        <v>410.9</v>
+        <v>239.93899999999999</v>
       </c>
       <c r="F17">
-        <v>343.55099999999999</v>
+        <v>165.755</v>
       </c>
       <c r="G17">
-        <v>872.91200000000003</v>
+        <v>509.685</v>
       </c>
       <c r="H17">
-        <v>2107.4549999999999</v>
+        <v>1383.213</v>
       </c>
       <c r="I17">
-        <v>129.172</v>
+        <v>60.259</v>
       </c>
       <c r="J17">
-        <v>368.53899999999999</v>
+        <v>185.32300000000001</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.5120000000000005</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>650.88400000000001</v>
+        <v>341.75200000000001</v>
       </c>
       <c r="O17">
-        <v>1258.5150000000001</v>
+        <v>709.41099999999994</v>
       </c>
       <c r="P17">
-        <v>488.56400000000002</v>
+        <v>194.83500000000001</v>
       </c>
       <c r="Q17">
-        <v>15.298999999999999</v>
+        <v>6.4349999999999996</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>848.94</v>
+        <v>673.80200000000002</v>
       </c>
       <c r="U17">
-        <v>126.31100000000001</v>
+        <v>54.048000000000002</v>
       </c>
       <c r="V17">
-        <v>127.261</v>
+        <v>47.006</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-86.495000000000005</v>
+        <v>-33.106000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>84.995999999999995</v>
+        <v>24.628</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>121.172</v>
+        <v>36.289000000000001</v>
       </c>
       <c r="D18">
-        <v>697.428</v>
+        <v>399.20499999999998</v>
       </c>
       <c r="E18">
-        <v>435.64800000000002</v>
+        <v>271.09699999999998</v>
       </c>
       <c r="F18">
-        <v>394.38200000000001</v>
+        <v>198.45699999999999</v>
       </c>
       <c r="G18">
-        <v>849.43</v>
+        <v>552.35699999999997</v>
       </c>
       <c r="H18">
-        <v>2009.11</v>
+        <v>1480.0719999999999</v>
       </c>
       <c r="I18">
-        <v>145.89599999999999</v>
+        <v>85.129000000000005</v>
       </c>
       <c r="J18">
-        <v>335.79</v>
+        <v>196.29</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.9130000000000003</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>678.89</v>
+        <v>348.24599999999998</v>
       </c>
       <c r="O18">
-        <v>1289.5150000000001</v>
+        <v>759.18600000000004</v>
       </c>
       <c r="P18">
-        <v>451.95400000000001</v>
+        <v>203.203</v>
       </c>
       <c r="Q18">
-        <v>-41.048000000000002</v>
+        <v>13.128</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>12000</v>
+        <v>8700</v>
       </c>
       <c r="T18">
-        <v>719.59500000000003</v>
+        <v>720.88599999999997</v>
       </c>
       <c r="U18">
-        <v>85.263000000000005</v>
+        <v>67.176000000000002</v>
       </c>
       <c r="V18">
-        <v>140.67400000000001</v>
+        <v>44.064</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-149.76599999999999</v>
+        <v>-21.9</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>121.172</v>
+        <v>36.289000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>63.051000000000002</v>
+        <v>20.780999999999999</v>
       </c>
       <c r="D19">
-        <v>535.70100000000002</v>
+        <v>337.16</v>
       </c>
       <c r="E19">
-        <v>382.38499999999999</v>
+        <v>259.512</v>
       </c>
       <c r="F19">
-        <v>298.80500000000001</v>
+        <v>162.79499999999999</v>
       </c>
       <c r="G19">
-        <v>814.85</v>
+        <v>545.74400000000003</v>
       </c>
       <c r="H19">
-        <v>1975.665</v>
+        <v>1451.1990000000001</v>
       </c>
       <c r="I19">
-        <v>131.667</v>
+        <v>66.156999999999996</v>
       </c>
       <c r="J19">
-        <v>414.34100000000001</v>
+        <v>217.42099999999999</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.351000000000001</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-77.486000000000004</v>
+        <v>-8.4309999999999992</v>
       </c>
       <c r="N19">
-        <v>637.70299999999997</v>
+        <v>331.53</v>
       </c>
       <c r="O19">
-        <v>1309.537</v>
+        <v>751.52599999999995</v>
       </c>
       <c r="P19">
-        <v>529.03399999999999</v>
+        <v>227.77199999999999</v>
       </c>
       <c r="Q19">
-        <v>-9.9039999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>666.12800000000004</v>
+        <v>699.673</v>
       </c>
       <c r="U19">
-        <v>75.358999999999995</v>
+        <v>67.78</v>
       </c>
       <c r="V19">
-        <v>58.595999999999997</v>
+        <v>6.6879999999999997</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-40.247999999999998</v>
+        <v>-0.55500000000000005</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>63.051000000000002</v>
+        <v>20.780999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>77.557000000000002</v>
+        <v>18.311</v>
       </c>
       <c r="D20">
-        <v>582.05700000000002</v>
+        <v>368.637</v>
       </c>
       <c r="E20">
-        <v>402.404</v>
+        <v>253.76</v>
       </c>
       <c r="F20">
-        <v>322.91199999999998</v>
+        <v>180.42500000000001</v>
       </c>
       <c r="G20">
-        <v>912.66399999999999</v>
+        <v>561.38599999999997</v>
       </c>
       <c r="H20">
-        <v>2096.9490000000001</v>
+        <v>1435.23</v>
       </c>
       <c r="I20">
-        <v>138.589</v>
+        <v>69.662999999999997</v>
       </c>
       <c r="J20">
-        <v>608.01199999999994</v>
+        <v>257.47300000000001</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.1959999999999997</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>579.54</v>
+        <v>327.09699999999998</v>
       </c>
       <c r="O20">
-        <v>1442.6980000000001</v>
+        <v>779.79700000000003</v>
       </c>
       <c r="P20">
-        <v>631.36500000000001</v>
+        <v>264.66899999999998</v>
       </c>
       <c r="Q20">
-        <v>73.95</v>
+        <v>36.084000000000003</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>654.25099999999998</v>
+        <v>655.43299999999999</v>
       </c>
       <c r="U20">
-        <v>149.309</v>
+        <v>103.864</v>
       </c>
       <c r="V20">
-        <v>105.18899999999999</v>
+        <v>50.591999999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-9.5359999999999996</v>
+        <v>-6.9870000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>77.557000000000002</v>
+        <v>18.311</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>88.861000000000004</v>
+        <v>25.617999999999999</v>
       </c>
       <c r="D21">
-        <v>604.154</v>
+        <v>365.428</v>
       </c>
       <c r="E21">
-        <v>390.54</v>
+        <v>250.58799999999999</v>
       </c>
       <c r="F21">
-        <v>339.529</v>
+        <v>179.006</v>
       </c>
       <c r="G21">
-        <v>868.31500000000005</v>
+        <v>553.35500000000002</v>
       </c>
       <c r="H21">
-        <v>2053.5459999999998</v>
+        <v>1423.415</v>
       </c>
       <c r="I21">
-        <v>136.565</v>
+        <v>70.581000000000003</v>
       </c>
       <c r="J21">
-        <v>601.73099999999999</v>
+        <v>223.99</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4.3879999999999999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>593.41499999999996</v>
+        <v>338.72800000000001</v>
       </c>
       <c r="O21">
-        <v>1467.194</v>
+        <v>765.60199999999998</v>
       </c>
       <c r="P21">
-        <v>622.79200000000003</v>
+        <v>228.37799999999999</v>
       </c>
       <c r="Q21">
-        <v>-26.01</v>
+        <v>-9.468</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>586.35199999999998</v>
+        <v>657.81299999999999</v>
       </c>
       <c r="U21">
-        <v>123.29900000000001</v>
+        <v>94.396000000000001</v>
       </c>
       <c r="V21">
-        <v>126.041</v>
+        <v>60.308999999999997</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-124.08</v>
+        <v>-60.524999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>88.861000000000004</v>
+        <v>25.617999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>123.351</v>
+        <v>44.192</v>
       </c>
       <c r="D22">
-        <v>673.53499999999997</v>
+        <v>411.24700000000001</v>
       </c>
       <c r="E22">
-        <v>411.42</v>
+        <v>271.91500000000002</v>
       </c>
       <c r="F22">
-        <v>390.74700000000001</v>
+        <v>208.09299999999999</v>
       </c>
       <c r="G22">
-        <v>795.33199999999999</v>
+        <v>800.65899999999999</v>
       </c>
       <c r="H22">
-        <v>1959.335</v>
+        <v>1669.7729999999999</v>
       </c>
       <c r="I22">
-        <v>142.07499999999999</v>
+        <v>88.552999999999997</v>
       </c>
       <c r="J22">
-        <v>575.13800000000003</v>
+        <v>443.79500000000002</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.3449999999999998</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>558.21199999999999</v>
+        <v>353.45600000000002</v>
       </c>
       <c r="O22">
-        <v>1378.8779999999999</v>
+        <v>1010.771</v>
       </c>
       <c r="P22">
-        <v>589.62599999999998</v>
+        <v>450.14</v>
       </c>
       <c r="Q22">
-        <v>-24.411999999999999</v>
+        <v>230.18199999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>12500</v>
+        <v>8800</v>
       </c>
       <c r="T22">
-        <v>580.45699999999999</v>
+        <v>659.00199999999995</v>
       </c>
       <c r="U22">
-        <v>98.887</v>
+        <v>324.57799999999997</v>
       </c>
       <c r="V22">
-        <v>137.042</v>
+        <v>59.47</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-133.16800000000001</v>
+        <v>185.80500000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>123.351</v>
+        <v>44.192</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>65.674000000000007</v>
+        <v>23.715</v>
       </c>
       <c r="D23">
-        <v>539.67399999999998</v>
+        <v>346.16</v>
       </c>
       <c r="E23">
-        <v>387.29599999999999</v>
+        <v>249.62799999999999</v>
       </c>
       <c r="F23">
-        <v>299.90699999999998</v>
+        <v>170.34</v>
       </c>
       <c r="G23">
-        <v>866.69899999999996</v>
+        <v>729.89599999999996</v>
       </c>
       <c r="H23">
-        <v>2035.2729999999999</v>
+        <v>1598.057</v>
       </c>
       <c r="I23">
-        <v>120.536</v>
+        <v>73.933000000000007</v>
       </c>
       <c r="J23">
-        <v>681.87199999999996</v>
+        <v>425.13299999999998</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8.3629999999999995</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-124.467</v>
+        <v>-26.783999999999999</v>
       </c>
       <c r="N23">
-        <v>544.79200000000003</v>
+        <v>322.09500000000003</v>
       </c>
       <c r="O23">
-        <v>1491.94</v>
+        <v>963.30700000000002</v>
       </c>
       <c r="P23">
-        <v>699.25300000000004</v>
+        <v>433.49599999999998</v>
       </c>
       <c r="Q23">
-        <v>11.708</v>
+        <v>-61.180999999999997</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>543.33299999999997</v>
+        <v>634.75</v>
       </c>
       <c r="U23">
-        <v>110.595</v>
+        <v>263.39699999999999</v>
       </c>
       <c r="V23">
-        <v>41.505000000000003</v>
+        <v>19.132999999999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-14.27</v>
+        <v>-75.879000000000005</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>65.674000000000007</v>
+        <v>23.715</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>79.587999999999994</v>
+        <v>34.756999999999998</v>
       </c>
       <c r="D24">
-        <v>608.28599999999994</v>
+        <v>389.15699999999998</v>
       </c>
       <c r="E24">
-        <v>407.97199999999998</v>
+        <v>265.58600000000001</v>
       </c>
       <c r="F24">
-        <v>347.57600000000002</v>
+        <v>192.435</v>
       </c>
       <c r="G24">
-        <v>900.26</v>
+        <v>735.50900000000001</v>
       </c>
       <c r="H24">
-        <v>2061.7469999999998</v>
+        <v>1616.6780000000001</v>
       </c>
       <c r="I24">
-        <v>131.88800000000001</v>
+        <v>79.817999999999998</v>
       </c>
       <c r="J24">
-        <v>693.26300000000003</v>
+        <v>412.78699999999998</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.2010000000000005</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>591.10799999999995</v>
+        <v>349.375</v>
       </c>
       <c r="O24">
-        <v>1569.7850000000001</v>
+        <v>984.91300000000001</v>
       </c>
       <c r="P24">
-        <v>714.20799999999997</v>
+        <v>420.988</v>
       </c>
       <c r="Q24">
-        <v>4.0510000000000002</v>
+        <v>-16.631</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>491.96199999999999</v>
+        <v>631.76499999999999</v>
       </c>
       <c r="U24">
-        <v>114.646</v>
+        <v>246.76599999999999</v>
       </c>
       <c r="V24">
-        <v>120.872</v>
+        <v>53.113999999999997</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-99.566000000000003</v>
+        <v>-65.87</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>79.587999999999994</v>
+        <v>34.756999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>101.33199999999999</v>
+        <v>47.04</v>
       </c>
       <c r="D25">
-        <v>650.59799999999996</v>
+        <v>397.31799999999998</v>
       </c>
       <c r="E25">
-        <v>414.60700000000003</v>
+        <v>270.71199999999999</v>
       </c>
       <c r="F25">
-        <v>369.49400000000003</v>
+        <v>194.05699999999999</v>
       </c>
       <c r="G25">
-        <v>946.10199999999998</v>
+        <v>688.44200000000001</v>
       </c>
       <c r="H25">
-        <v>2220.98</v>
+        <v>1562.5640000000001</v>
       </c>
       <c r="I25">
-        <v>129.65</v>
+        <v>82.599000000000004</v>
       </c>
       <c r="J25">
-        <v>826.02200000000005</v>
+        <v>361.41800000000001</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>7.7380000000000004</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>620.84900000000005</v>
+        <v>363.375</v>
       </c>
       <c r="O25">
-        <v>1720.463</v>
+        <v>936.09699999999998</v>
       </c>
       <c r="P25">
-        <v>847.80100000000004</v>
+        <v>369.15600000000001</v>
       </c>
       <c r="Q25">
-        <v>31.486999999999998</v>
+        <v>-51.408000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>500.517</v>
+        <v>626.46699999999998</v>
       </c>
       <c r="U25">
-        <v>146.13300000000001</v>
+        <v>195.358</v>
       </c>
       <c r="V25">
-        <v>144.93600000000001</v>
+        <v>67.468999999999994</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>12.423999999999999</v>
+        <v>-111.907</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>101.33199999999999</v>
+        <v>47.04</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>137.77600000000001</v>
+        <v>52.02</v>
       </c>
       <c r="D26">
-        <v>709.69899999999996</v>
+        <v>462.27699999999999</v>
       </c>
       <c r="E26">
-        <v>454.988</v>
+        <v>306.87900000000002</v>
       </c>
       <c r="F26">
-        <v>418.61</v>
+        <v>233.6</v>
       </c>
       <c r="G26">
-        <v>896.78399999999999</v>
+        <v>669.77</v>
       </c>
       <c r="H26">
-        <v>2166.777</v>
+        <v>1587.085</v>
       </c>
       <c r="I26">
-        <v>146.59299999999999</v>
+        <v>95.971000000000004</v>
       </c>
       <c r="J26">
-        <v>875.05600000000004</v>
+        <v>345.70499999999998</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>9.9619999999999997</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>587.51499999999999</v>
+        <v>384.37900000000002</v>
       </c>
       <c r="O26">
-        <v>1731.8340000000001</v>
+        <v>956.22299999999996</v>
       </c>
       <c r="P26">
-        <v>894.03</v>
+        <v>355.66699999999997</v>
       </c>
       <c r="Q26">
-        <v>12.541</v>
+        <v>-44.088999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>13200</v>
+        <v>9100</v>
       </c>
       <c r="T26">
-        <v>434.94299999999998</v>
+        <v>630.86199999999997</v>
       </c>
       <c r="U26">
-        <v>158.67400000000001</v>
+        <v>151.26900000000001</v>
       </c>
       <c r="V26">
-        <v>153.44499999999999</v>
+        <v>51.85</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-62.192999999999998</v>
+        <v>-83.808000000000007</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>137.77600000000001</v>
+        <v>52.02</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>92.465999999999994</v>
+        <v>30.43</v>
       </c>
       <c r="D27">
-        <v>594.56700000000001</v>
+        <v>387.76400000000001</v>
       </c>
       <c r="E27">
-        <v>439.41300000000001</v>
+        <v>290.67099999999999</v>
       </c>
       <c r="F27">
-        <v>343.38900000000001</v>
+        <v>191.47900000000001</v>
       </c>
       <c r="G27">
-        <v>912.86500000000001</v>
+        <v>612.94500000000005</v>
       </c>
       <c r="H27">
-        <v>2203.7640000000001</v>
+        <v>1534.0719999999999</v>
       </c>
       <c r="I27">
-        <v>137.827</v>
+        <v>90.314999999999998</v>
       </c>
       <c r="J27">
-        <v>944.21100000000001</v>
+        <v>330.916</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>12.346</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-409.88099999999997</v>
+        <v>-17.306000000000001</v>
       </c>
       <c r="N27">
-        <v>561.16200000000003</v>
+        <v>352.87</v>
       </c>
       <c r="O27">
-        <v>1763.912</v>
+        <v>933.78599999999994</v>
       </c>
       <c r="P27">
-        <v>963.68700000000001</v>
+        <v>343.262</v>
       </c>
       <c r="Q27">
-        <v>6.2190000000000003</v>
+        <v>-55.738999999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>439.85199999999998</v>
+        <v>600.28599999999994</v>
       </c>
       <c r="U27">
-        <v>164.893</v>
+        <v>95.53</v>
       </c>
       <c r="V27">
-        <v>67.599000000000004</v>
+        <v>32.302999999999997</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-53.945</v>
+        <v>-81.974999999999994</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>92.465999999999994</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>101.58</v>
+        <v>41.030999999999999</v>
       </c>
       <c r="D28">
-        <v>653.65599999999995</v>
+        <v>430.54399999999998</v>
       </c>
       <c r="E28">
-        <v>448.09800000000001</v>
+        <v>300.762</v>
       </c>
       <c r="F28">
-        <v>375.61200000000002</v>
+        <v>215.09299999999999</v>
       </c>
       <c r="G28">
-        <v>913.75300000000004</v>
+        <v>632.37300000000005</v>
       </c>
       <c r="H28">
-        <v>2247.9499999999998</v>
+        <v>1552.5640000000001</v>
       </c>
       <c r="I28">
-        <v>143.607</v>
+        <v>92.936000000000007</v>
       </c>
       <c r="J28">
-        <v>947.78099999999995</v>
+        <v>337.86099999999999</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>15.151999999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>588.80899999999997</v>
+        <v>378.74099999999999</v>
       </c>
       <c r="O28">
-        <v>1786.0309999999999</v>
+        <v>966.697</v>
       </c>
       <c r="P28">
-        <v>969.38900000000001</v>
+        <v>353.01299999999998</v>
       </c>
       <c r="Q28">
-        <v>-18.559000000000001</v>
+        <v>4.1769999999999996</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>461.91899999999998</v>
+        <v>585.86699999999996</v>
       </c>
       <c r="U28">
-        <v>146.334</v>
+        <v>99.706999999999994</v>
       </c>
       <c r="V28">
-        <v>137.77799999999999</v>
+        <v>60.58</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-128.51499999999999</v>
+        <v>-50.406999999999996</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>101.58</v>
+        <v>41.030999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>104.95</v>
+        <v>43.771999999999998</v>
       </c>
       <c r="D29">
-        <v>698.79899999999998</v>
+        <v>442.6</v>
       </c>
       <c r="E29">
-        <v>483.16699999999997</v>
+        <v>299.90600000000001</v>
       </c>
       <c r="F29">
-        <v>400.97500000000002</v>
+        <v>219.00899999999999</v>
       </c>
       <c r="G29">
-        <v>986.56399999999996</v>
+        <v>619.10400000000004</v>
       </c>
       <c r="H29">
-        <v>2497.1990000000001</v>
+        <v>1557.6759999999999</v>
       </c>
       <c r="I29">
-        <v>148.52099999999999</v>
+        <v>95.941999999999993</v>
       </c>
       <c r="J29">
-        <v>1050.681</v>
+        <v>359.29</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>12.512</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>652.35799999999995</v>
+        <v>406.10700000000003</v>
       </c>
       <c r="O29">
-        <v>1984.22</v>
+        <v>1023.682</v>
       </c>
       <c r="P29">
-        <v>1069.2139999999999</v>
+        <v>371.80200000000002</v>
       </c>
       <c r="Q29">
-        <v>22.751999999999999</v>
+        <v>-24.321999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>512.97900000000004</v>
+        <v>533.99400000000003</v>
       </c>
       <c r="U29">
-        <v>169.08600000000001</v>
+        <v>75.385000000000005</v>
       </c>
       <c r="V29">
-        <v>145.858</v>
+        <v>76.203000000000003</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>15.205</v>
+        <v>-96.072999999999993</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>104.95</v>
+        <v>43.771999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>76.975999999999999</v>
+        <v>63.274000000000001</v>
       </c>
       <c r="D30">
-        <v>778.03099999999995</v>
+        <v>532.84100000000001</v>
       </c>
       <c r="E30">
-        <v>528.61500000000001</v>
+        <v>354.596</v>
       </c>
       <c r="F30">
-        <v>455.77499999999998</v>
+        <v>270.60199999999998</v>
       </c>
       <c r="G30">
-        <v>1006.723</v>
+        <v>683.20899999999995</v>
       </c>
       <c r="H30">
-        <v>2549.8049999999998</v>
+        <v>1678.2139999999999</v>
       </c>
       <c r="I30">
-        <v>167.62700000000001</v>
+        <v>127.10899999999999</v>
       </c>
       <c r="J30">
-        <v>960.17</v>
+        <v>385.072</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>689.673</v>
+        <v>447.77300000000002</v>
       </c>
       <c r="O30">
-        <v>2002.5250000000001</v>
+        <v>1096.9280000000001</v>
       </c>
       <c r="P30">
-        <v>979.84699999999998</v>
+        <v>396.642</v>
       </c>
       <c r="Q30">
-        <v>-20.399000000000001</v>
+        <v>5.8369999999999997</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>13800</v>
+        <v>9500</v>
       </c>
       <c r="T30">
-        <v>547.28</v>
+        <v>581.28599999999994</v>
       </c>
       <c r="U30">
-        <v>148.68700000000001</v>
+        <v>81.221999999999994</v>
       </c>
       <c r="V30">
-        <v>165.09</v>
+        <v>59.131</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-152.27500000000001</v>
+        <v>-35.526000000000003</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>76.975999999999999</v>
+        <v>63.274000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>93.304000000000002</v>
+        <v>38.279000000000003</v>
       </c>
       <c r="D31">
-        <v>660.82100000000003</v>
+        <v>438.95499999999998</v>
       </c>
       <c r="E31">
-        <v>483.91899999999998</v>
+        <v>342.86700000000002</v>
       </c>
       <c r="F31">
-        <v>374.93299999999999</v>
+        <v>221.15199999999999</v>
       </c>
       <c r="G31">
-        <v>927.37199999999996</v>
+        <v>709.971</v>
       </c>
       <c r="H31">
-        <v>2511.9070000000002</v>
+        <v>1738.3679999999999</v>
       </c>
       <c r="I31">
-        <v>164.63900000000001</v>
+        <v>106.175</v>
       </c>
       <c r="J31">
-        <v>978.71500000000003</v>
+        <v>471.85500000000002</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>19.693999999999999</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-44.722000000000001</v>
       </c>
       <c r="M31">
-        <v>-331.11399999999998</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>636.88199999999995</v>
+        <v>427.62799999999999</v>
       </c>
       <c r="O31">
-        <v>1951.16</v>
+        <v>1179.3599999999999</v>
       </c>
       <c r="P31">
-        <v>993.59799999999996</v>
+        <v>491.54899999999998</v>
       </c>
       <c r="Q31">
-        <v>-49.738</v>
+        <v>-0.53800000000000003</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>560.74699999999996</v>
+        <v>559.00800000000004</v>
       </c>
       <c r="U31">
-        <v>98.948999999999998</v>
+        <v>80.683999999999997</v>
       </c>
       <c r="V31">
-        <v>76.563999999999993</v>
+        <v>8.1539999999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-107.68300000000001</v>
+        <v>-17.786000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>93.304000000000002</v>
+        <v>38.279000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>111.468</v>
+        <v>48.850999999999999</v>
       </c>
       <c r="D32">
-        <v>721.99599999999998</v>
+        <v>515.60500000000002</v>
       </c>
       <c r="E32">
-        <v>486.20299999999997</v>
+        <v>348.274</v>
       </c>
       <c r="F32">
-        <v>412.625</v>
+        <v>259.01100000000002</v>
       </c>
       <c r="G32">
-        <v>1003.307</v>
+        <v>725.93200000000002</v>
       </c>
       <c r="H32">
-        <v>2558.2159999999999</v>
+        <v>1748.5719999999999</v>
       </c>
       <c r="I32">
-        <v>170.86500000000001</v>
+        <v>107.229</v>
       </c>
       <c r="J32">
-        <v>1020.42</v>
+        <v>468.51100000000002</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>14.701000000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>688.81700000000001</v>
+        <v>453.43200000000002</v>
       </c>
       <c r="O32">
-        <v>2025.7819999999999</v>
+        <v>1199.8530000000001</v>
       </c>
       <c r="P32">
-        <v>1072.472</v>
+        <v>483.21199999999999</v>
       </c>
       <c r="Q32">
-        <v>84.241</v>
+        <v>4.84</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>532.43399999999997</v>
+        <v>548.71900000000005</v>
       </c>
       <c r="U32">
-        <v>183.19</v>
+        <v>85.524000000000001</v>
       </c>
       <c r="V32">
-        <v>140.19499999999999</v>
+        <v>75.876999999999995</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-20.835000000000001</v>
+        <v>-59.384</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>111.468</v>
+        <v>48.850999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>126.65300000000001</v>
+        <v>52.723999999999997</v>
       </c>
       <c r="D33">
-        <v>734.846</v>
+        <v>509.09699999999998</v>
       </c>
       <c r="E33">
-        <v>494.887</v>
+        <v>340.48099999999999</v>
       </c>
       <c r="F33">
-        <v>419.25400000000002</v>
+        <v>248.68</v>
       </c>
       <c r="G33">
-        <v>971.49900000000002</v>
+        <v>732.154</v>
       </c>
       <c r="H33">
-        <v>2557.6640000000002</v>
+        <v>1743.7660000000001</v>
       </c>
       <c r="I33">
-        <v>156.447</v>
+        <v>107.059</v>
       </c>
       <c r="J33">
-        <v>988.89400000000001</v>
+        <v>495.63200000000001</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>24.047999999999998</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>697.46900000000005</v>
+        <v>472.31400000000002</v>
       </c>
       <c r="O33">
-        <v>2026.049</v>
+        <v>1233.1690000000001</v>
       </c>
       <c r="P33">
-        <v>1044.6469999999999</v>
+        <v>519.67999999999995</v>
       </c>
       <c r="Q33">
-        <v>-45.741999999999997</v>
+        <v>25.515000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>531.61500000000001</v>
+        <v>510.59699999999998</v>
       </c>
       <c r="U33">
-        <v>137.44800000000001</v>
+        <v>111.039</v>
       </c>
       <c r="V33">
-        <v>149.67400000000001</v>
+        <v>76.593999999999994</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-146.048</v>
+        <v>-32.063000000000002</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>126.65300000000001</v>
+        <v>52.723999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>181.18600000000001</v>
+        <v>62.923999999999999</v>
       </c>
       <c r="D34">
-        <v>817.923</v>
+        <v>509.68700000000001</v>
       </c>
       <c r="E34">
-        <v>535.52800000000002</v>
+        <v>348.61399999999998</v>
       </c>
       <c r="F34">
-        <v>477.56599999999997</v>
+        <v>264.238</v>
       </c>
       <c r="G34">
-        <v>1045.8599999999999</v>
+        <v>670.86500000000001</v>
       </c>
       <c r="H34">
-        <v>2618.8470000000002</v>
+        <v>1664.056</v>
       </c>
       <c r="I34">
-        <v>196.64099999999999</v>
+        <v>111.44199999999999</v>
       </c>
       <c r="J34">
-        <v>985.048</v>
+        <v>441.58800000000002</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>734.43399999999997</v>
+        <v>424.87200000000001</v>
       </c>
       <c r="O34">
-        <v>2028.7840000000001</v>
+        <v>1160.809</v>
       </c>
       <c r="P34">
-        <v>1034.7180000000001</v>
+        <v>454.08</v>
       </c>
       <c r="Q34">
-        <v>40.661999999999999</v>
+        <v>-32.966000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>14200</v>
+        <v>10000</v>
       </c>
       <c r="T34">
-        <v>590.06299999999999</v>
+        <v>503.24700000000001</v>
       </c>
       <c r="U34">
-        <v>178.11</v>
+        <v>78.072999999999993</v>
       </c>
       <c r="V34">
-        <v>198.572</v>
+        <v>62.524000000000001</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-113.456</v>
+        <v>-69.299000000000007</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,125 +3587,125 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>181.18600000000001</v>
+        <v>62.923999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>111.80500000000001</v>
+        <v>33.878999999999998</v>
       </c>
       <c r="D35">
-        <v>679.452</v>
+        <v>374.07900000000001</v>
       </c>
       <c r="E35">
-        <v>489.28100000000001</v>
+        <v>288.89299999999997</v>
       </c>
       <c r="F35">
-        <v>388.31900000000002</v>
+        <v>187.922</v>
       </c>
       <c r="G35">
-        <v>969.38400000000001</v>
+        <v>651.899</v>
       </c>
       <c r="H35">
-        <v>2636.6970000000001</v>
+        <v>1621.796</v>
       </c>
       <c r="I35">
-        <v>174.63900000000001</v>
+        <v>77.975999999999999</v>
       </c>
       <c r="J35">
-        <v>1008.896</v>
+        <v>467.65300000000002</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-32.142000000000003</v>
       </c>
       <c r="M35">
-        <v>-271.64600000000002</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>707.96400000000006</v>
+        <v>360.64400000000001</v>
       </c>
       <c r="O35">
-        <v>2074.9470000000001</v>
+        <v>1101.173</v>
       </c>
       <c r="P35">
-        <v>1149.53</v>
+        <v>477.35300000000001</v>
       </c>
       <c r="Q35">
-        <v>-51.63</v>
+        <v>52.697000000000003</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>561.75</v>
+        <v>520.62300000000005</v>
       </c>
       <c r="U35">
-        <v>126.48</v>
+        <v>130.77000000000001</v>
       </c>
       <c r="V35">
-        <v>98.795000000000002</v>
+        <v>34.871000000000002</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-136.19900000000001</v>
+        <v>28.728000000000002</v>
       </c>
       <c r="Y35">
-        <v>60.625999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>111.80500000000001</v>
+        <v>33.878999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>127.16</v>
+        <v>27.731000000000002</v>
       </c>
       <c r="D36">
-        <v>731.36599999999999</v>
+        <v>407.44200000000001</v>
       </c>
       <c r="E36">
-        <v>498.72300000000001</v>
+        <v>286.29599999999999</v>
       </c>
       <c r="F36">
-        <v>419.53800000000001</v>
+        <v>206.23400000000001</v>
       </c>
       <c r="G36">
-        <v>981.44600000000003</v>
+        <v>643.59500000000003</v>
       </c>
       <c r="H36">
-        <v>2660.8580000000002</v>
+        <v>1657.6089999999999</v>
       </c>
       <c r="I36">
-        <v>160.584</v>
+        <v>84.552999999999997</v>
       </c>
       <c r="J36">
-        <v>1090.0740000000001</v>
+        <v>398.464</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>6.0060000000000002</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>707.25099999999998</v>
+        <v>384.97</v>
       </c>
       <c r="O36">
-        <v>2156.7719999999999</v>
+        <v>1066.3209999999999</v>
       </c>
       <c r="P36">
-        <v>1230.722</v>
+        <v>404.47</v>
       </c>
       <c r="Q36">
-        <v>-2.0409999999999999</v>
+        <v>-11.044</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>504.08600000000001</v>
+        <v>591.28800000000001</v>
       </c>
       <c r="U36">
-        <v>124.43899999999999</v>
+        <v>119.726</v>
       </c>
       <c r="V36">
-        <v>127.07</v>
+        <v>74.022999999999996</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-100.69</v>
+        <v>-76.325999999999993</v>
       </c>
       <c r="Y36">
-        <v>62.32</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>127.16</v>
+        <v>27.731000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>129.39500000000001</v>
+        <v>41.545000000000002</v>
       </c>
       <c r="D37">
-        <v>753.86599999999999</v>
+        <v>435.65</v>
       </c>
       <c r="E37">
-        <v>503.24700000000001</v>
+        <v>284.96499999999997</v>
       </c>
       <c r="F37">
-        <v>435.05599999999998</v>
+        <v>225.19300000000001</v>
       </c>
       <c r="G37">
-        <v>963.80799999999999</v>
+        <v>648.51599999999996</v>
       </c>
       <c r="H37">
-        <v>2635.8690000000001</v>
+        <v>1680.6949999999999</v>
       </c>
       <c r="I37">
-        <v>148.22</v>
+        <v>92.01</v>
       </c>
       <c r="J37">
-        <v>1126.723</v>
+        <v>320.71899999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>719.255</v>
+        <v>424.42200000000003</v>
       </c>
       <c r="O37">
-        <v>2197.5680000000002</v>
+        <v>1029.3109999999999</v>
       </c>
       <c r="P37">
-        <v>1264.204</v>
+        <v>331.37099999999998</v>
       </c>
       <c r="Q37">
-        <v>-3.9049999999999998</v>
+        <v>-5.7779999999999996</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>438.30099999999999</v>
+        <v>651.38400000000001</v>
       </c>
       <c r="U37">
-        <v>120.53400000000001</v>
+        <v>113.94799999999999</v>
       </c>
       <c r="V37">
-        <v>175.876</v>
+        <v>79.581000000000003</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-145.27500000000001</v>
+        <v>-74.516000000000005</v>
       </c>
       <c r="Y37">
-        <v>62.042999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>129.39500000000001</v>
+        <v>41.545000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>192.749</v>
+        <v>69.438000000000002</v>
       </c>
       <c r="D38">
-        <v>843.96799999999996</v>
+        <v>511.68200000000002</v>
       </c>
       <c r="E38">
-        <v>566.25599999999997</v>
+        <v>312.99799999999999</v>
       </c>
       <c r="F38">
-        <v>498.298</v>
+        <v>269.988</v>
       </c>
       <c r="G38">
-        <v>1109.6469999999999</v>
+        <v>646.10699999999997</v>
       </c>
       <c r="H38">
-        <v>2789.3209999999999</v>
+        <v>1718.787</v>
       </c>
       <c r="I38">
-        <v>185.59200000000001</v>
+        <v>103.16</v>
       </c>
       <c r="J38">
-        <v>1236.8979999999999</v>
+        <v>203.59</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,120 +3880,120 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>754.51199999999994</v>
+        <v>494.67500000000001</v>
       </c>
       <c r="O38">
-        <v>2368.5410000000002</v>
+        <v>1007.649</v>
       </c>
       <c r="P38">
-        <v>1381.6579999999999</v>
+        <v>294.291</v>
       </c>
       <c r="Q38">
-        <v>87.251000000000005</v>
+        <v>-28.917000000000002</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>14850</v>
+        <v>10400</v>
       </c>
       <c r="T38">
-        <v>420.78</v>
+        <v>711.13800000000003</v>
       </c>
       <c r="U38">
-        <v>207.785</v>
+        <v>85.031000000000006</v>
       </c>
       <c r="V38">
-        <v>201.709</v>
+        <v>44.13</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-95.203999999999994</v>
+        <v>-35.329000000000001</v>
       </c>
       <c r="Y38">
-        <v>60.936999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>192.749</v>
+        <v>69.438000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>98.114999999999995</v>
+        <v>37.868000000000002</v>
       </c>
       <c r="D39">
-        <v>649.16200000000003</v>
+        <v>416.65100000000001</v>
       </c>
       <c r="E39">
-        <v>518.55600000000004</v>
+        <v>304.12099999999998</v>
       </c>
       <c r="F39">
-        <v>374.40899999999999</v>
+        <v>217.92599999999999</v>
       </c>
       <c r="G39">
-        <v>1200.865</v>
+        <v>649.76900000000001</v>
       </c>
       <c r="H39">
-        <v>2885.78</v>
+        <v>1715.404</v>
       </c>
       <c r="I39">
-        <v>168.51499999999999</v>
+        <v>100.92700000000001</v>
       </c>
       <c r="J39">
-        <v>1516.818</v>
+        <v>204.517</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-19.199000000000002</v>
       </c>
       <c r="M39">
-        <v>-551.31899999999996</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>679.83799999999997</v>
+        <v>498.92099999999999</v>
       </c>
       <c r="O39">
-        <v>2579.3829999999998</v>
+        <v>1003.587</v>
       </c>
       <c r="P39">
-        <v>1573.8230000000001</v>
+        <v>297.82900000000001</v>
       </c>
       <c r="Q39">
-        <v>115.8</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>306.39699999999999</v>
+        <v>711.81700000000001</v>
       </c>
       <c r="U39">
-        <v>323.58499999999998</v>
+        <v>85.882999999999996</v>
       </c>
       <c r="V39">
-        <v>65.515000000000001</v>
+        <v>44.494</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>87.284000000000006</v>
+        <v>-20.413</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3882,39 +4002,39 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>98.114999999999995</v>
+        <v>37.868000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>126.562</v>
+        <v>51.347000000000001</v>
       </c>
       <c r="D40">
-        <v>690.673</v>
+        <v>468.54899999999998</v>
       </c>
       <c r="E40">
-        <v>490.42899999999997</v>
+        <v>310.07100000000003</v>
       </c>
       <c r="F40">
-        <v>397.97</v>
+        <v>246.625</v>
       </c>
       <c r="G40">
-        <v>989.80799999999999</v>
+        <v>690.86300000000006</v>
       </c>
       <c r="H40">
-        <v>2679.6469999999999</v>
+        <v>1745.7940000000001</v>
       </c>
       <c r="I40">
-        <v>155.90100000000001</v>
+        <v>110.971</v>
       </c>
       <c r="J40">
-        <v>1150.17</v>
+        <v>209.58600000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,37 +4046,37 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>702.82899999999995</v>
+        <v>528.97299999999996</v>
       </c>
       <c r="O40">
-        <v>2229.5540000000001</v>
+        <v>1028.6020000000001</v>
       </c>
       <c r="P40">
-        <v>1204.153</v>
+        <v>300.72000000000003</v>
       </c>
       <c r="Q40">
-        <v>-196.30799999999999</v>
+        <v>25.707999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>450.09300000000002</v>
+        <v>717.19200000000001</v>
       </c>
       <c r="U40">
-        <v>127.277</v>
+        <v>111.59099999999999</v>
       </c>
       <c r="V40">
-        <v>183.23699999999999</v>
+        <v>74.763999999999996</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-362.36099999999999</v>
+        <v>-38.731999999999999</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3965,39 +4085,39 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>126.562</v>
+        <v>51.347000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>161.767</v>
+        <v>62.081000000000003</v>
       </c>
       <c r="D41">
-        <v>807.35699999999997</v>
+        <v>490.21300000000002</v>
       </c>
       <c r="E41">
-        <v>521.77700000000004</v>
+        <v>331.95400000000001</v>
       </c>
       <c r="F41">
-        <v>469.608</v>
+        <v>256.05500000000001</v>
       </c>
       <c r="G41">
-        <v>1046.32</v>
+        <v>786.72900000000004</v>
       </c>
       <c r="H41">
-        <v>2766.5360000000001</v>
+        <v>1907.627</v>
       </c>
       <c r="I41">
-        <v>146.64599999999999</v>
+        <v>121.339</v>
       </c>
       <c r="J41">
-        <v>1172.211</v>
+        <v>254.68100000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,37 +4129,37 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>764.08100000000002</v>
+        <v>606.024</v>
       </c>
       <c r="O41">
-        <v>2323.4690000000001</v>
+        <v>1152.0840000000001</v>
       </c>
       <c r="P41">
-        <v>1227.421</v>
+        <v>344.096</v>
       </c>
       <c r="Q41">
-        <v>26.408999999999999</v>
+        <v>31.292999999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>443.06700000000001</v>
+        <v>755.54300000000001</v>
       </c>
       <c r="U41">
-        <v>153.68600000000001</v>
+        <v>142.88399999999999</v>
       </c>
       <c r="V41">
-        <v>225.078</v>
+        <v>86.012</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-182.35900000000001</v>
+        <v>-39.353999999999999</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4048,89 +4168,3409 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>161.767</v>
+        <v>62.081000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>80.852000000000004</v>
+      </c>
+      <c r="D42">
+        <v>592.76499999999999</v>
+      </c>
+      <c r="E42">
+        <v>368.93599999999998</v>
+      </c>
+      <c r="F42">
+        <v>316.58999999999997</v>
+      </c>
+      <c r="G42">
+        <v>1144.895</v>
+      </c>
+      <c r="H42">
+        <v>2283.0630000000001</v>
+      </c>
+      <c r="I42">
+        <v>138.10499999999999</v>
+      </c>
+      <c r="J42">
+        <v>676.14300000000003</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>542.18600000000004</v>
+      </c>
+      <c r="O42">
+        <v>1511.479</v>
+      </c>
+      <c r="P42">
+        <v>687.04499999999996</v>
+      </c>
+      <c r="Q42">
+        <v>304.69299999999998</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>11200</v>
+      </c>
+      <c r="T42">
+        <v>771.58399999999995</v>
+      </c>
+      <c r="U42">
+        <v>447.577</v>
+      </c>
+      <c r="V42">
+        <v>63.009</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>266.42200000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>80.852000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>46.826999999999998</v>
+      </c>
+      <c r="D43">
+        <v>498.76600000000002</v>
+      </c>
+      <c r="E43">
+        <v>365.57799999999997</v>
+      </c>
+      <c r="F43">
+        <v>261.50700000000001</v>
+      </c>
+      <c r="G43">
+        <v>1117.1969999999999</v>
+      </c>
+      <c r="H43">
+        <v>2298.846</v>
+      </c>
+      <c r="I43">
+        <v>134.25700000000001</v>
+      </c>
+      <c r="J43">
+        <v>682.68700000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>-11.488</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>524.41300000000001</v>
+      </c>
+      <c r="O43">
+        <v>1509.8689999999999</v>
+      </c>
+      <c r="P43">
+        <v>705.27</v>
+      </c>
+      <c r="Q43">
+        <v>-59.475000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>788.97699999999998</v>
+      </c>
+      <c r="U43">
+        <v>388.10199999999998</v>
+      </c>
+      <c r="V43">
+        <v>6.524</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-34.56</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>46.826999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>60.188000000000002</v>
+      </c>
+      <c r="D44">
+        <v>561.08799999999997</v>
+      </c>
+      <c r="E44">
+        <v>382.089</v>
+      </c>
+      <c r="F44">
+        <v>296.19099999999997</v>
+      </c>
+      <c r="G44">
+        <v>1098.1690000000001</v>
+      </c>
+      <c r="H44">
+        <v>2341.279</v>
+      </c>
+      <c r="I44">
+        <v>151.499</v>
+      </c>
+      <c r="J44">
+        <v>628.14599999999996</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>565.995</v>
+      </c>
+      <c r="O44">
+        <v>1502.874</v>
+      </c>
+      <c r="P44">
+        <v>640.77200000000005</v>
+      </c>
+      <c r="Q44">
+        <v>-59.338999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>838.40499999999997</v>
+      </c>
+      <c r="U44">
+        <v>328.76299999999998</v>
+      </c>
+      <c r="V44">
+        <v>87.028999999999996</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-125.795</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>60.188000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>68.195999999999998</v>
+      </c>
+      <c r="D45">
+        <v>601.11400000000003</v>
+      </c>
+      <c r="E45">
+        <v>398.40199999999999</v>
+      </c>
+      <c r="F45">
+        <v>314.41699999999997</v>
+      </c>
+      <c r="G45">
+        <v>1053.146</v>
+      </c>
+      <c r="H45">
+        <v>2295.4369999999999</v>
+      </c>
+      <c r="I45">
+        <v>167.91900000000001</v>
+      </c>
+      <c r="J45">
+        <v>560.00900000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>617.28300000000002</v>
+      </c>
+      <c r="O45">
+        <v>1476.028</v>
+      </c>
+      <c r="P45">
+        <v>591.15200000000004</v>
+      </c>
+      <c r="Q45">
+        <v>-66.290000000000006</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>819.40899999999999</v>
+      </c>
+      <c r="U45">
+        <v>262.47300000000001</v>
+      </c>
+      <c r="V45">
+        <v>84.111000000000004</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-105.97</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>68.195999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>94.281999999999996</v>
+      </c>
+      <c r="D46">
+        <v>648.36</v>
+      </c>
+      <c r="E46">
+        <v>425.14699999999999</v>
+      </c>
+      <c r="F46">
+        <v>346.15899999999999</v>
+      </c>
+      <c r="G46">
+        <v>1018.8630000000001</v>
+      </c>
+      <c r="H46">
+        <v>2203.4740000000002</v>
+      </c>
+      <c r="I46">
+        <v>168.10900000000001</v>
+      </c>
+      <c r="J46">
+        <v>485.89</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>609.84400000000005</v>
+      </c>
+      <c r="O46">
+        <v>1422.337</v>
+      </c>
+      <c r="P46">
+        <v>514.19000000000005</v>
+      </c>
+      <c r="Q46">
+        <v>-26.872</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>12000</v>
+      </c>
+      <c r="T46">
+        <v>781.13699999999994</v>
+      </c>
+      <c r="U46">
+        <v>235.601</v>
+      </c>
+      <c r="V46">
+        <v>103.21599999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-94.144000000000005</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>94.281999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>52.326999999999998</v>
+      </c>
+      <c r="D47">
+        <v>535.4</v>
+      </c>
+      <c r="E47">
+        <v>389.11799999999999</v>
+      </c>
+      <c r="F47">
+        <v>277.10199999999998</v>
+      </c>
+      <c r="G47">
+        <v>905.58199999999999</v>
+      </c>
+      <c r="H47">
+        <v>2113.4430000000002</v>
+      </c>
+      <c r="I47">
+        <v>131.98400000000001</v>
+      </c>
+      <c r="J47">
+        <v>453.714</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-93.878</v>
+      </c>
+      <c r="N47">
+        <v>525.41899999999998</v>
+      </c>
+      <c r="O47">
+        <v>1306.47</v>
+      </c>
+      <c r="P47">
+        <v>482.53100000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-79.409000000000006</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>806.97299999999996</v>
+      </c>
+      <c r="U47">
+        <v>156.19200000000001</v>
+      </c>
+      <c r="V47">
+        <v>20.797000000000001</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-83.77</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>52.326999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>61.704000000000001</v>
+      </c>
+      <c r="D48">
+        <v>570.28300000000002</v>
+      </c>
+      <c r="E48">
+        <v>397.238</v>
+      </c>
+      <c r="F48">
+        <v>299.00799999999998</v>
+      </c>
+      <c r="G48">
+        <v>860.976</v>
+      </c>
+      <c r="H48">
+        <v>2055.6260000000002</v>
+      </c>
+      <c r="I48">
+        <v>129.988</v>
+      </c>
+      <c r="J48">
+        <v>440.83</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>523.00199999999995</v>
+      </c>
+      <c r="O48">
+        <v>1280.652</v>
+      </c>
+      <c r="P48">
+        <v>467.91899999999998</v>
+      </c>
+      <c r="Q48">
+        <v>-21.425999999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>774.97400000000005</v>
+      </c>
+      <c r="U48">
+        <v>134.76599999999999</v>
+      </c>
+      <c r="V48">
+        <v>91.251999999999995</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-84.733999999999995</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>61.704000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>72.183000000000007</v>
+      </c>
+      <c r="D49">
+        <v>578.553</v>
+      </c>
+      <c r="E49">
+        <v>406.57</v>
+      </c>
+      <c r="F49">
+        <v>308.15699999999998</v>
+      </c>
+      <c r="G49">
+        <v>838.36300000000006</v>
+      </c>
+      <c r="H49">
+        <v>2061.4050000000002</v>
+      </c>
+      <c r="I49">
+        <v>129.982</v>
+      </c>
+      <c r="J49">
+        <v>388.01</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>555.23800000000006</v>
+      </c>
+      <c r="O49">
+        <v>1263.1610000000001</v>
+      </c>
+      <c r="P49">
+        <v>424.58</v>
+      </c>
+      <c r="Q49">
+        <v>-29.391999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>798.24400000000003</v>
+      </c>
+      <c r="U49">
+        <v>105.374</v>
+      </c>
+      <c r="V49">
+        <v>103.929</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-113.593</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>72.183000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>104.633</v>
+      </c>
+      <c r="D50">
+        <v>657.29200000000003</v>
+      </c>
+      <c r="E50">
+        <v>437.39</v>
+      </c>
+      <c r="F50">
+        <v>356.78800000000001</v>
+      </c>
+      <c r="G50">
+        <v>864.23699999999997</v>
+      </c>
+      <c r="H50">
+        <v>2022.288</v>
+      </c>
+      <c r="I50">
+        <v>142.36199999999999</v>
+      </c>
+      <c r="J50">
+        <v>355.33100000000002</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>561.99400000000003</v>
+      </c>
+      <c r="O50">
+        <v>1195.069</v>
+      </c>
+      <c r="P50">
+        <v>396.93099999999998</v>
+      </c>
+      <c r="Q50">
+        <v>-3.6720000000000002</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>12400</v>
+      </c>
+      <c r="T50">
+        <v>827.21900000000005</v>
+      </c>
+      <c r="U50">
+        <v>101.702</v>
+      </c>
+      <c r="V50">
+        <v>111.726</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-84.3</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>104.633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>52.543999999999997</v>
+      </c>
+      <c r="D51">
+        <v>524.35500000000002</v>
+      </c>
+      <c r="E51">
+        <v>410.65</v>
+      </c>
+      <c r="F51">
+        <v>279.15800000000002</v>
+      </c>
+      <c r="G51">
+        <v>828.93799999999999</v>
+      </c>
+      <c r="H51">
+        <v>2070.6060000000002</v>
+      </c>
+      <c r="I51">
+        <v>116.678</v>
+      </c>
+      <c r="J51">
+        <v>429.41300000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-89.334000000000003</v>
+      </c>
+      <c r="N51">
+        <v>478.29500000000002</v>
+      </c>
+      <c r="O51">
+        <v>1270.384</v>
+      </c>
+      <c r="P51">
+        <v>447.37200000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-8.4930000000000003</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>800.22199999999998</v>
+      </c>
+      <c r="U51">
+        <v>93.209000000000003</v>
+      </c>
+      <c r="V51">
+        <v>23.672000000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-12.833</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>52.543999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>69.061999999999998</v>
+      </c>
+      <c r="D52">
+        <v>578.67999999999995</v>
+      </c>
+      <c r="E52">
+        <v>418.03100000000001</v>
+      </c>
+      <c r="F52">
+        <v>308.84300000000002</v>
+      </c>
+      <c r="G52">
+        <v>875.37599999999998</v>
+      </c>
+      <c r="H52">
+        <v>2133.4369999999999</v>
+      </c>
+      <c r="I52">
+        <v>122.755</v>
+      </c>
+      <c r="J52">
+        <v>450.22699999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>509.02600000000001</v>
+      </c>
+      <c r="O52">
+        <v>1322.335</v>
+      </c>
+      <c r="P52">
+        <v>468.15800000000002</v>
+      </c>
+      <c r="Q52">
+        <v>27.007999999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>811.10199999999998</v>
+      </c>
+      <c r="U52">
+        <v>120.217</v>
+      </c>
+      <c r="V52">
+        <v>90.96</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-45.331000000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>69.061999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>74.325999999999993</v>
+      </c>
+      <c r="D53">
+        <v>591.68700000000001</v>
+      </c>
+      <c r="E53">
+        <v>402.70800000000003</v>
+      </c>
+      <c r="F53">
+        <v>318.57299999999998</v>
+      </c>
+      <c r="G53">
+        <v>848.875</v>
+      </c>
+      <c r="H53">
+        <v>2144.0160000000001</v>
+      </c>
+      <c r="I53">
+        <v>120.66500000000001</v>
+      </c>
+      <c r="J53">
+        <v>390.87099999999998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>538.97500000000002</v>
+      </c>
+      <c r="O53">
+        <v>1296.374</v>
+      </c>
+      <c r="P53">
+        <v>406.89</v>
+      </c>
+      <c r="Q53">
+        <v>-27.995000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>847.64200000000005</v>
+      </c>
+      <c r="U53">
+        <v>92.221999999999994</v>
+      </c>
+      <c r="V53">
+        <v>122.783</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-131.45099999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>74.325999999999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>110.16200000000001</v>
+      </c>
+      <c r="D54">
+        <v>684.25199999999995</v>
+      </c>
+      <c r="E54">
+        <v>466.70299999999997</v>
+      </c>
+      <c r="F54">
+        <v>375.35700000000003</v>
+      </c>
+      <c r="G54">
+        <v>913.98699999999997</v>
+      </c>
+      <c r="H54">
+        <v>2152.819</v>
+      </c>
+      <c r="I54">
+        <v>145.99299999999999</v>
+      </c>
+      <c r="J54">
+        <v>401.27199999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>564.18799999999999</v>
+      </c>
+      <c r="O54">
+        <v>1217.7670000000001</v>
+      </c>
+      <c r="P54">
+        <v>418.339</v>
+      </c>
+      <c r="Q54">
+        <v>19.652000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>12500</v>
+      </c>
+      <c r="T54">
+        <v>935.05200000000002</v>
+      </c>
+      <c r="U54">
+        <v>111.874</v>
+      </c>
+      <c r="V54">
+        <v>108.51300000000001</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-61.500999999999998</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>110.16200000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>58.051000000000002</v>
+      </c>
+      <c r="D55">
+        <v>550.62099999999998</v>
+      </c>
+      <c r="E55">
+        <v>425.161</v>
+      </c>
+      <c r="F55">
+        <v>292.64100000000002</v>
+      </c>
+      <c r="G55">
+        <v>890.10500000000002</v>
+      </c>
+      <c r="H55">
+        <v>2135.1370000000002</v>
+      </c>
+      <c r="I55">
+        <v>119.128</v>
+      </c>
+      <c r="J55">
+        <v>454.28199999999998</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-93.228999999999999</v>
+      </c>
+      <c r="N55">
+        <v>509.19499999999999</v>
+      </c>
+      <c r="O55">
+        <v>1211.5329999999999</v>
+      </c>
+      <c r="P55">
+        <v>470.53699999999998</v>
+      </c>
+      <c r="Q55">
+        <v>3.93</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>923.60400000000004</v>
+      </c>
+      <c r="U55">
+        <v>115.804</v>
+      </c>
+      <c r="V55">
+        <v>42.844999999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-21.902999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>58.051000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>74.022000000000006</v>
+      </c>
+      <c r="D56">
+        <v>608.83399999999995</v>
+      </c>
+      <c r="E56">
+        <v>427.495</v>
+      </c>
+      <c r="F56">
+        <v>328.17599999999999</v>
+      </c>
+      <c r="G56">
+        <v>886.38800000000003</v>
+      </c>
+      <c r="H56">
+        <v>2143.42</v>
+      </c>
+      <c r="I56">
+        <v>140.10499999999999</v>
+      </c>
+      <c r="J56">
+        <v>349.76400000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>640.38099999999997</v>
+      </c>
+      <c r="O56">
+        <v>1235.7059999999999</v>
+      </c>
+      <c r="P56">
+        <v>471.07</v>
+      </c>
+      <c r="Q56">
+        <v>-4.7919999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>907.71400000000006</v>
+      </c>
+      <c r="U56">
+        <v>111.012</v>
+      </c>
+      <c r="V56">
+        <v>108.13200000000001</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-90.066999999999993</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>74.022000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>84.995999999999995</v>
+      </c>
+      <c r="D57">
+        <v>629.1</v>
+      </c>
+      <c r="E57">
+        <v>410.9</v>
+      </c>
+      <c r="F57">
+        <v>343.55099999999999</v>
+      </c>
+      <c r="G57">
+        <v>872.91200000000003</v>
+      </c>
+      <c r="H57">
+        <v>2107.4549999999999</v>
+      </c>
+      <c r="I57">
+        <v>129.172</v>
+      </c>
+      <c r="J57">
+        <v>368.53899999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>650.88400000000001</v>
+      </c>
+      <c r="O57">
+        <v>1258.5150000000001</v>
+      </c>
+      <c r="P57">
+        <v>488.56400000000002</v>
+      </c>
+      <c r="Q57">
+        <v>15.298999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>848.94</v>
+      </c>
+      <c r="U57">
+        <v>126.31100000000001</v>
+      </c>
+      <c r="V57">
+        <v>127.261</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-86.495000000000005</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>84.995999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>121.172</v>
+      </c>
+      <c r="D58">
+        <v>697.428</v>
+      </c>
+      <c r="E58">
+        <v>435.64800000000002</v>
+      </c>
+      <c r="F58">
+        <v>394.38200000000001</v>
+      </c>
+      <c r="G58">
+        <v>849.43</v>
+      </c>
+      <c r="H58">
+        <v>2009.11</v>
+      </c>
+      <c r="I58">
+        <v>145.89599999999999</v>
+      </c>
+      <c r="J58">
+        <v>335.79</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>678.89</v>
+      </c>
+      <c r="O58">
+        <v>1289.5150000000001</v>
+      </c>
+      <c r="P58">
+        <v>451.95400000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-41.048000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>12000</v>
+      </c>
+      <c r="T58">
+        <v>719.59500000000003</v>
+      </c>
+      <c r="U58">
+        <v>85.263000000000005</v>
+      </c>
+      <c r="V58">
+        <v>140.67400000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-149.76599999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>121.172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>63.051000000000002</v>
+      </c>
+      <c r="D59">
+        <v>535.70100000000002</v>
+      </c>
+      <c r="E59">
+        <v>382.38499999999999</v>
+      </c>
+      <c r="F59">
+        <v>298.80500000000001</v>
+      </c>
+      <c r="G59">
+        <v>814.85</v>
+      </c>
+      <c r="H59">
+        <v>1975.665</v>
+      </c>
+      <c r="I59">
+        <v>131.667</v>
+      </c>
+      <c r="J59">
+        <v>414.34100000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-77.486000000000004</v>
+      </c>
+      <c r="N59">
+        <v>637.70299999999997</v>
+      </c>
+      <c r="O59">
+        <v>1309.537</v>
+      </c>
+      <c r="P59">
+        <v>529.03399999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-9.9039999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>666.12800000000004</v>
+      </c>
+      <c r="U59">
+        <v>75.358999999999995</v>
+      </c>
+      <c r="V59">
+        <v>58.595999999999997</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-40.247999999999998</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>63.051000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>77.557000000000002</v>
+      </c>
+      <c r="D60">
+        <v>582.05700000000002</v>
+      </c>
+      <c r="E60">
+        <v>402.404</v>
+      </c>
+      <c r="F60">
+        <v>322.91199999999998</v>
+      </c>
+      <c r="G60">
+        <v>912.66399999999999</v>
+      </c>
+      <c r="H60">
+        <v>2096.9490000000001</v>
+      </c>
+      <c r="I60">
+        <v>138.589</v>
+      </c>
+      <c r="J60">
+        <v>608.01199999999994</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>579.54</v>
+      </c>
+      <c r="O60">
+        <v>1442.6980000000001</v>
+      </c>
+      <c r="P60">
+        <v>631.36500000000001</v>
+      </c>
+      <c r="Q60">
+        <v>73.95</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>654.25099999999998</v>
+      </c>
+      <c r="U60">
+        <v>149.309</v>
+      </c>
+      <c r="V60">
+        <v>105.18899999999999</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-9.5359999999999996</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>77.557000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>88.861000000000004</v>
+      </c>
+      <c r="D61">
+        <v>604.154</v>
+      </c>
+      <c r="E61">
+        <v>390.54</v>
+      </c>
+      <c r="F61">
+        <v>339.529</v>
+      </c>
+      <c r="G61">
+        <v>868.31500000000005</v>
+      </c>
+      <c r="H61">
+        <v>2053.5459999999998</v>
+      </c>
+      <c r="I61">
+        <v>136.565</v>
+      </c>
+      <c r="J61">
+        <v>601.73099999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>593.41499999999996</v>
+      </c>
+      <c r="O61">
+        <v>1467.194</v>
+      </c>
+      <c r="P61">
+        <v>622.79200000000003</v>
+      </c>
+      <c r="Q61">
+        <v>-26.01</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>586.35199999999998</v>
+      </c>
+      <c r="U61">
+        <v>123.29900000000001</v>
+      </c>
+      <c r="V61">
+        <v>126.041</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-124.08</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>88.861000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>123.351</v>
+      </c>
+      <c r="D62">
+        <v>673.53499999999997</v>
+      </c>
+      <c r="E62">
+        <v>411.42</v>
+      </c>
+      <c r="F62">
+        <v>390.74700000000001</v>
+      </c>
+      <c r="G62">
+        <v>795.33199999999999</v>
+      </c>
+      <c r="H62">
+        <v>1959.335</v>
+      </c>
+      <c r="I62">
+        <v>142.07499999999999</v>
+      </c>
+      <c r="J62">
+        <v>575.13800000000003</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>558.21199999999999</v>
+      </c>
+      <c r="O62">
+        <v>1378.8779999999999</v>
+      </c>
+      <c r="P62">
+        <v>589.62599999999998</v>
+      </c>
+      <c r="Q62">
+        <v>-24.411999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>12500</v>
+      </c>
+      <c r="T62">
+        <v>580.45699999999999</v>
+      </c>
+      <c r="U62">
+        <v>98.887</v>
+      </c>
+      <c r="V62">
+        <v>137.042</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-133.16800000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>123.351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>65.674000000000007</v>
+      </c>
+      <c r="D63">
+        <v>539.67399999999998</v>
+      </c>
+      <c r="E63">
+        <v>387.29599999999999</v>
+      </c>
+      <c r="F63">
+        <v>299.90699999999998</v>
+      </c>
+      <c r="G63">
+        <v>866.69899999999996</v>
+      </c>
+      <c r="H63">
+        <v>2035.2729999999999</v>
+      </c>
+      <c r="I63">
+        <v>120.536</v>
+      </c>
+      <c r="J63">
+        <v>681.87199999999996</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-124.467</v>
+      </c>
+      <c r="N63">
+        <v>544.79200000000003</v>
+      </c>
+      <c r="O63">
+        <v>1491.94</v>
+      </c>
+      <c r="P63">
+        <v>699.25300000000004</v>
+      </c>
+      <c r="Q63">
+        <v>11.708</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>543.33299999999997</v>
+      </c>
+      <c r="U63">
+        <v>110.595</v>
+      </c>
+      <c r="V63">
+        <v>41.505000000000003</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-14.27</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>65.674000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>79.587999999999994</v>
+      </c>
+      <c r="D64">
+        <v>608.28599999999994</v>
+      </c>
+      <c r="E64">
+        <v>407.97199999999998</v>
+      </c>
+      <c r="F64">
+        <v>347.57600000000002</v>
+      </c>
+      <c r="G64">
+        <v>900.26</v>
+      </c>
+      <c r="H64">
+        <v>2061.7469999999998</v>
+      </c>
+      <c r="I64">
+        <v>131.88800000000001</v>
+      </c>
+      <c r="J64">
+        <v>693.26300000000003</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>591.10799999999995</v>
+      </c>
+      <c r="O64">
+        <v>1569.7850000000001</v>
+      </c>
+      <c r="P64">
+        <v>714.20799999999997</v>
+      </c>
+      <c r="Q64">
+        <v>4.0510000000000002</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>491.96199999999999</v>
+      </c>
+      <c r="U64">
+        <v>114.646</v>
+      </c>
+      <c r="V64">
+        <v>120.872</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-99.566000000000003</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>79.587999999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>101.33199999999999</v>
+      </c>
+      <c r="D65">
+        <v>650.59799999999996</v>
+      </c>
+      <c r="E65">
+        <v>414.60700000000003</v>
+      </c>
+      <c r="F65">
+        <v>369.49400000000003</v>
+      </c>
+      <c r="G65">
+        <v>946.10199999999998</v>
+      </c>
+      <c r="H65">
+        <v>2220.98</v>
+      </c>
+      <c r="I65">
+        <v>129.65</v>
+      </c>
+      <c r="J65">
+        <v>826.02200000000005</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>620.84900000000005</v>
+      </c>
+      <c r="O65">
+        <v>1720.463</v>
+      </c>
+      <c r="P65">
+        <v>847.80100000000004</v>
+      </c>
+      <c r="Q65">
+        <v>31.486999999999998</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>500.517</v>
+      </c>
+      <c r="U65">
+        <v>146.13300000000001</v>
+      </c>
+      <c r="V65">
+        <v>144.93600000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>12.423999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>101.33199999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>137.77600000000001</v>
+      </c>
+      <c r="D66">
+        <v>709.69899999999996</v>
+      </c>
+      <c r="E66">
+        <v>454.988</v>
+      </c>
+      <c r="F66">
+        <v>418.61</v>
+      </c>
+      <c r="G66">
+        <v>896.78399999999999</v>
+      </c>
+      <c r="H66">
+        <v>2166.777</v>
+      </c>
+      <c r="I66">
+        <v>146.59299999999999</v>
+      </c>
+      <c r="J66">
+        <v>875.05600000000004</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>587.51499999999999</v>
+      </c>
+      <c r="O66">
+        <v>1731.8340000000001</v>
+      </c>
+      <c r="P66">
+        <v>894.03</v>
+      </c>
+      <c r="Q66">
+        <v>12.541</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>13200</v>
+      </c>
+      <c r="T66">
+        <v>434.94299999999998</v>
+      </c>
+      <c r="U66">
+        <v>158.67400000000001</v>
+      </c>
+      <c r="V66">
+        <v>153.44499999999999</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-62.192999999999998</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>137.77600000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>92.465999999999994</v>
+      </c>
+      <c r="D67">
+        <v>594.56700000000001</v>
+      </c>
+      <c r="E67">
+        <v>439.41300000000001</v>
+      </c>
+      <c r="F67">
+        <v>343.38900000000001</v>
+      </c>
+      <c r="G67">
+        <v>912.86500000000001</v>
+      </c>
+      <c r="H67">
+        <v>2203.7640000000001</v>
+      </c>
+      <c r="I67">
+        <v>137.827</v>
+      </c>
+      <c r="J67">
+        <v>944.21100000000001</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-409.88099999999997</v>
+      </c>
+      <c r="N67">
+        <v>561.16200000000003</v>
+      </c>
+      <c r="O67">
+        <v>1763.912</v>
+      </c>
+      <c r="P67">
+        <v>963.68700000000001</v>
+      </c>
+      <c r="Q67">
+        <v>6.2190000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>439.85199999999998</v>
+      </c>
+      <c r="U67">
+        <v>164.893</v>
+      </c>
+      <c r="V67">
+        <v>67.599000000000004</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-53.945</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>92.465999999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>101.58</v>
+      </c>
+      <c r="D68">
+        <v>653.65599999999995</v>
+      </c>
+      <c r="E68">
+        <v>448.09800000000001</v>
+      </c>
+      <c r="F68">
+        <v>375.61200000000002</v>
+      </c>
+      <c r="G68">
+        <v>913.75300000000004</v>
+      </c>
+      <c r="H68">
+        <v>2247.9499999999998</v>
+      </c>
+      <c r="I68">
+        <v>143.607</v>
+      </c>
+      <c r="J68">
+        <v>947.78099999999995</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>588.80899999999997</v>
+      </c>
+      <c r="O68">
+        <v>1786.0309999999999</v>
+      </c>
+      <c r="P68">
+        <v>969.38900000000001</v>
+      </c>
+      <c r="Q68">
+        <v>-18.559000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>461.91899999999998</v>
+      </c>
+      <c r="U68">
+        <v>146.334</v>
+      </c>
+      <c r="V68">
+        <v>137.77799999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-128.51499999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>101.58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>104.95</v>
+      </c>
+      <c r="D69">
+        <v>698.79899999999998</v>
+      </c>
+      <c r="E69">
+        <v>483.16699999999997</v>
+      </c>
+      <c r="F69">
+        <v>400.97500000000002</v>
+      </c>
+      <c r="G69">
+        <v>986.56399999999996</v>
+      </c>
+      <c r="H69">
+        <v>2497.1990000000001</v>
+      </c>
+      <c r="I69">
+        <v>148.52099999999999</v>
+      </c>
+      <c r="J69">
+        <v>1050.681</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>652.35799999999995</v>
+      </c>
+      <c r="O69">
+        <v>1984.22</v>
+      </c>
+      <c r="P69">
+        <v>1069.2139999999999</v>
+      </c>
+      <c r="Q69">
+        <v>22.751999999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>512.97900000000004</v>
+      </c>
+      <c r="U69">
+        <v>169.08600000000001</v>
+      </c>
+      <c r="V69">
+        <v>145.858</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>15.205</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>104.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>76.975999999999999</v>
+      </c>
+      <c r="D70">
+        <v>778.03099999999995</v>
+      </c>
+      <c r="E70">
+        <v>528.61500000000001</v>
+      </c>
+      <c r="F70">
+        <v>455.77499999999998</v>
+      </c>
+      <c r="G70">
+        <v>1006.723</v>
+      </c>
+      <c r="H70">
+        <v>2549.8049999999998</v>
+      </c>
+      <c r="I70">
+        <v>167.62700000000001</v>
+      </c>
+      <c r="J70">
+        <v>960.17</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>689.673</v>
+      </c>
+      <c r="O70">
+        <v>2002.5250000000001</v>
+      </c>
+      <c r="P70">
+        <v>979.84699999999998</v>
+      </c>
+      <c r="Q70">
+        <v>-20.399000000000001</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>13800</v>
+      </c>
+      <c r="T70">
+        <v>547.28</v>
+      </c>
+      <c r="U70">
+        <v>148.68700000000001</v>
+      </c>
+      <c r="V70">
+        <v>165.09</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-152.27500000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>76.975999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>93.304000000000002</v>
+      </c>
+      <c r="D71">
+        <v>660.82100000000003</v>
+      </c>
+      <c r="E71">
+        <v>483.91899999999998</v>
+      </c>
+      <c r="F71">
+        <v>374.93299999999999</v>
+      </c>
+      <c r="G71">
+        <v>927.37199999999996</v>
+      </c>
+      <c r="H71">
+        <v>2511.9070000000002</v>
+      </c>
+      <c r="I71">
+        <v>164.63900000000001</v>
+      </c>
+      <c r="J71">
+        <v>978.71500000000003</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-331.11399999999998</v>
+      </c>
+      <c r="N71">
+        <v>636.88199999999995</v>
+      </c>
+      <c r="O71">
+        <v>1951.16</v>
+      </c>
+      <c r="P71">
+        <v>993.59799999999996</v>
+      </c>
+      <c r="Q71">
+        <v>-49.738</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>560.74699999999996</v>
+      </c>
+      <c r="U71">
+        <v>98.948999999999998</v>
+      </c>
+      <c r="V71">
+        <v>76.563999999999993</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-107.68300000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>93.304000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>111.468</v>
+      </c>
+      <c r="D72">
+        <v>721.99599999999998</v>
+      </c>
+      <c r="E72">
+        <v>486.20299999999997</v>
+      </c>
+      <c r="F72">
+        <v>412.625</v>
+      </c>
+      <c r="G72">
+        <v>1003.307</v>
+      </c>
+      <c r="H72">
+        <v>2558.2159999999999</v>
+      </c>
+      <c r="I72">
+        <v>170.86500000000001</v>
+      </c>
+      <c r="J72">
+        <v>1020.42</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>688.81700000000001</v>
+      </c>
+      <c r="O72">
+        <v>2025.7819999999999</v>
+      </c>
+      <c r="P72">
+        <v>1072.472</v>
+      </c>
+      <c r="Q72">
+        <v>84.241</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>532.43399999999997</v>
+      </c>
+      <c r="U72">
+        <v>183.19</v>
+      </c>
+      <c r="V72">
+        <v>140.19499999999999</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-20.835000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>111.468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>126.65300000000001</v>
+      </c>
+      <c r="D73">
+        <v>734.846</v>
+      </c>
+      <c r="E73">
+        <v>494.887</v>
+      </c>
+      <c r="F73">
+        <v>419.25400000000002</v>
+      </c>
+      <c r="G73">
+        <v>971.49900000000002</v>
+      </c>
+      <c r="H73">
+        <v>2557.6640000000002</v>
+      </c>
+      <c r="I73">
+        <v>156.447</v>
+      </c>
+      <c r="J73">
+        <v>988.89400000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>697.46900000000005</v>
+      </c>
+      <c r="O73">
+        <v>2026.049</v>
+      </c>
+      <c r="P73">
+        <v>1044.6469999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-45.741999999999997</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>531.61500000000001</v>
+      </c>
+      <c r="U73">
+        <v>137.44800000000001</v>
+      </c>
+      <c r="V73">
+        <v>149.67400000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-146.048</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>126.65300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>181.18600000000001</v>
+      </c>
+      <c r="D74">
+        <v>817.923</v>
+      </c>
+      <c r="E74">
+        <v>535.52800000000002</v>
+      </c>
+      <c r="F74">
+        <v>477.56599999999997</v>
+      </c>
+      <c r="G74">
+        <v>1045.8599999999999</v>
+      </c>
+      <c r="H74">
+        <v>2618.8470000000002</v>
+      </c>
+      <c r="I74">
+        <v>196.64099999999999</v>
+      </c>
+      <c r="J74">
+        <v>985.048</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>734.43399999999997</v>
+      </c>
+      <c r="O74">
+        <v>2028.7840000000001</v>
+      </c>
+      <c r="P74">
+        <v>1034.7180000000001</v>
+      </c>
+      <c r="Q74">
+        <v>40.661999999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>14200</v>
+      </c>
+      <c r="T74">
+        <v>590.06299999999999</v>
+      </c>
+      <c r="U74">
+        <v>178.11</v>
+      </c>
+      <c r="V74">
+        <v>198.572</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-113.456</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>181.18600000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>111.80500000000001</v>
+      </c>
+      <c r="D75">
+        <v>679.452</v>
+      </c>
+      <c r="E75">
+        <v>489.28100000000001</v>
+      </c>
+      <c r="F75">
+        <v>388.31900000000002</v>
+      </c>
+      <c r="G75">
+        <v>969.38400000000001</v>
+      </c>
+      <c r="H75">
+        <v>2636.6970000000001</v>
+      </c>
+      <c r="I75">
+        <v>174.63900000000001</v>
+      </c>
+      <c r="J75">
+        <v>1008.896</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-271.64600000000002</v>
+      </c>
+      <c r="N75">
+        <v>707.96400000000006</v>
+      </c>
+      <c r="O75">
+        <v>2074.9470000000001</v>
+      </c>
+      <c r="P75">
+        <v>1149.53</v>
+      </c>
+      <c r="Q75">
+        <v>-51.63</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>561.75</v>
+      </c>
+      <c r="U75">
+        <v>126.48</v>
+      </c>
+      <c r="V75">
+        <v>98.795000000000002</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-136.19900000000001</v>
+      </c>
+      <c r="Y75">
+        <v>60.625999999999998</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>111.80500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>127.16</v>
+      </c>
+      <c r="D76">
+        <v>731.36599999999999</v>
+      </c>
+      <c r="E76">
+        <v>498.72300000000001</v>
+      </c>
+      <c r="F76">
+        <v>419.53800000000001</v>
+      </c>
+      <c r="G76">
+        <v>981.44600000000003</v>
+      </c>
+      <c r="H76">
+        <v>2660.8580000000002</v>
+      </c>
+      <c r="I76">
+        <v>160.584</v>
+      </c>
+      <c r="J76">
+        <v>1090.0740000000001</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>707.25099999999998</v>
+      </c>
+      <c r="O76">
+        <v>2156.7719999999999</v>
+      </c>
+      <c r="P76">
+        <v>1230.722</v>
+      </c>
+      <c r="Q76">
+        <v>-2.0409999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>504.08600000000001</v>
+      </c>
+      <c r="U76">
+        <v>124.43899999999999</v>
+      </c>
+      <c r="V76">
+        <v>127.07</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-100.69</v>
+      </c>
+      <c r="Y76">
+        <v>62.32</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>127.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>129.39500000000001</v>
+      </c>
+      <c r="D77">
+        <v>753.86599999999999</v>
+      </c>
+      <c r="E77">
+        <v>503.24700000000001</v>
+      </c>
+      <c r="F77">
+        <v>435.05599999999998</v>
+      </c>
+      <c r="G77">
+        <v>963.80799999999999</v>
+      </c>
+      <c r="H77">
+        <v>2635.8690000000001</v>
+      </c>
+      <c r="I77">
+        <v>148.22</v>
+      </c>
+      <c r="J77">
+        <v>1126.723</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>719.255</v>
+      </c>
+      <c r="O77">
+        <v>2197.5680000000002</v>
+      </c>
+      <c r="P77">
+        <v>1264.204</v>
+      </c>
+      <c r="Q77">
+        <v>-3.9049999999999998</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>438.30099999999999</v>
+      </c>
+      <c r="U77">
+        <v>120.53400000000001</v>
+      </c>
+      <c r="V77">
+        <v>175.876</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-145.27500000000001</v>
+      </c>
+      <c r="Y77">
+        <v>62.042999999999999</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>129.39500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>192.749</v>
+      </c>
+      <c r="D78">
+        <v>843.96799999999996</v>
+      </c>
+      <c r="E78">
+        <v>566.25599999999997</v>
+      </c>
+      <c r="F78">
+        <v>498.298</v>
+      </c>
+      <c r="G78">
+        <v>1109.6469999999999</v>
+      </c>
+      <c r="H78">
+        <v>2789.3209999999999</v>
+      </c>
+      <c r="I78">
+        <v>185.59200000000001</v>
+      </c>
+      <c r="J78">
+        <v>1236.8979999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>754.51199999999994</v>
+      </c>
+      <c r="O78">
+        <v>2368.5410000000002</v>
+      </c>
+      <c r="P78">
+        <v>1381.6579999999999</v>
+      </c>
+      <c r="Q78">
+        <v>87.251000000000005</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>14850</v>
+      </c>
+      <c r="T78">
+        <v>420.78</v>
+      </c>
+      <c r="U78">
+        <v>207.785</v>
+      </c>
+      <c r="V78">
+        <v>201.709</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-95.203999999999994</v>
+      </c>
+      <c r="Y78">
+        <v>60.936999999999998</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>192.749</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>98.114999999999995</v>
+      </c>
+      <c r="D79">
+        <v>649.16200000000003</v>
+      </c>
+      <c r="E79">
+        <v>518.55600000000004</v>
+      </c>
+      <c r="F79">
+        <v>374.40899999999999</v>
+      </c>
+      <c r="G79">
+        <v>1200.865</v>
+      </c>
+      <c r="H79">
+        <v>2885.78</v>
+      </c>
+      <c r="I79">
+        <v>168.51499999999999</v>
+      </c>
+      <c r="J79">
+        <v>1516.818</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-551.31899999999996</v>
+      </c>
+      <c r="N79">
+        <v>679.83799999999997</v>
+      </c>
+      <c r="O79">
+        <v>2579.3829999999998</v>
+      </c>
+      <c r="P79">
+        <v>1573.8230000000001</v>
+      </c>
+      <c r="Q79">
+        <v>115.8</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>306.39699999999999</v>
+      </c>
+      <c r="U79">
+        <v>323.58499999999998</v>
+      </c>
+      <c r="V79">
+        <v>65.515000000000001</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>87.284000000000006</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>98.114999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>126.562</v>
+      </c>
+      <c r="D80">
+        <v>690.673</v>
+      </c>
+      <c r="E80">
+        <v>490.42899999999997</v>
+      </c>
+      <c r="F80">
+        <v>397.97</v>
+      </c>
+      <c r="G80">
+        <v>989.80799999999999</v>
+      </c>
+      <c r="H80">
+        <v>2679.6469999999999</v>
+      </c>
+      <c r="I80">
+        <v>155.90100000000001</v>
+      </c>
+      <c r="J80">
+        <v>1150.17</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>702.82899999999995</v>
+      </c>
+      <c r="O80">
+        <v>2229.5540000000001</v>
+      </c>
+      <c r="P80">
+        <v>1204.153</v>
+      </c>
+      <c r="Q80">
+        <v>-196.30799999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>450.09300000000002</v>
+      </c>
+      <c r="U80">
+        <v>127.277</v>
+      </c>
+      <c r="V80">
+        <v>183.23699999999999</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-362.36099999999999</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>126.562</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>161.767</v>
+      </c>
+      <c r="D81">
+        <v>807.35699999999997</v>
+      </c>
+      <c r="E81">
+        <v>521.77700000000004</v>
+      </c>
+      <c r="F81">
+        <v>469.608</v>
+      </c>
+      <c r="G81">
+        <v>1046.32</v>
+      </c>
+      <c r="H81">
+        <v>2766.5360000000001</v>
+      </c>
+      <c r="I81">
+        <v>146.64599999999999</v>
+      </c>
+      <c r="J81">
+        <v>1172.211</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>764.08100000000002</v>
+      </c>
+      <c r="O81">
+        <v>2323.4690000000001</v>
+      </c>
+      <c r="P81">
+        <v>1227.421</v>
+      </c>
+      <c r="Q81">
+        <v>26.408999999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>443.06700000000001</v>
+      </c>
+      <c r="U81">
+        <v>153.68600000000001</v>
+      </c>
+      <c r="V81">
+        <v>225.078</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-182.35900000000001</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>161.767</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>216.29499999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>937.98500000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>593.80899999999997</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>559.04399999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1056.904</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>2814.549</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>175.80099999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1286.6759999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>840.327</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2531.8739999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1436.039</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-59.432000000000002</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>14900</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>282.67500000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>94.254000000000005</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>250.869</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-286.47199999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>69.83</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>216.29499999999999</v>
       </c>
     </row>
